--- a/Реестр контрактов на 2021 год № 44-ФЗ.xlsx
+++ b/Реестр контрактов на 2021 год № 44-ФЗ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13692" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ЕП с размещением" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">' ЕП до 600 т.р (п.4)'!$A$2:$S$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">ТОРГИ!$A$1:$S$1</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -6100,7 +6100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="865">
   <si>
     <t>№ п/п</t>
   </si>
@@ -8949,14 +8949,11 @@
   <si>
     <t xml:space="preserve">ОСАГО </t>
   </si>
-  <si>
-    <t>Подписка сервиса SendPuise (массовая рассылка писем до 4000 подписчиков)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
@@ -10835,30 +10832,30 @@
       <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="112" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="111" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="112" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="111" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" style="57" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" style="57" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="57" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="57" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="39" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" style="71" customWidth="1"/>
-    <col min="16" max="17" width="14.5546875" style="58" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" style="56" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" style="71" customWidth="1"/>
+    <col min="16" max="17" width="14.5703125" style="58" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="56" customWidth="1"/>
     <col min="19" max="19" width="11" style="56" customWidth="1"/>
-    <col min="20" max="29" width="10.5546875" style="56" customWidth="1"/>
-    <col min="30" max="100" width="9.109375" style="126"/>
+    <col min="20" max="29" width="10.5703125" style="56" customWidth="1"/>
+    <col min="30" max="100" width="9.140625" style="126"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="139" t="s">
         <v>332</v>
       </c>
@@ -10947,7 +10944,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="275" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" s="275" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="274"/>
       <c r="B2" s="262">
         <v>1</v>
@@ -11011,7 +11008,7 @@
       <c r="AB2" s="265"/>
       <c r="AC2" s="265"/>
     </row>
-    <row r="3" spans="1:29" s="275" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" s="275" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="274"/>
       <c r="B3" s="262">
         <v>2</v>
@@ -11073,7 +11070,7 @@
       <c r="AB3" s="265"/>
       <c r="AC3" s="265"/>
     </row>
-    <row r="4" spans="1:29" s="275" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" s="275" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="274"/>
       <c r="B4" s="262">
         <v>3</v>
@@ -11135,7 +11132,7 @@
       <c r="AB4" s="265"/>
       <c r="AC4" s="265"/>
     </row>
-    <row r="5" spans="1:29" s="275" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" s="275" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="274"/>
       <c r="B5" s="262">
         <v>4</v>
@@ -11197,7 +11194,7 @@
       <c r="AB5" s="265"/>
       <c r="AC5" s="265"/>
     </row>
-    <row r="6" spans="1:29" s="275" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" s="275" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="274"/>
       <c r="B6" s="262">
         <v>5</v>
@@ -11259,7 +11256,7 @@
       <c r="AB6" s="265"/>
       <c r="AC6" s="265"/>
     </row>
-    <row r="7" spans="1:29" s="275" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" s="275" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="274"/>
       <c r="B7" s="262">
         <v>7</v>
@@ -11321,7 +11318,7 @@
       <c r="AB7" s="265"/>
       <c r="AC7" s="265"/>
     </row>
-    <row r="8" spans="1:29" s="275" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" s="275" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="274"/>
       <c r="B8" s="262">
         <v>8</v>
@@ -11383,7 +11380,7 @@
       <c r="AB8" s="265"/>
       <c r="AC8" s="265"/>
     </row>
-    <row r="9" spans="1:29" s="275" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" s="275" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="274"/>
       <c r="B9" s="262">
         <v>9</v>
@@ -11445,7 +11442,7 @@
       <c r="AB9" s="265"/>
       <c r="AC9" s="265"/>
     </row>
-    <row r="10" spans="1:29" s="275" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" s="275" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="274"/>
       <c r="B10" s="262">
         <v>10</v>
@@ -11506,7 +11503,7 @@
       <c r="AB10" s="265"/>
       <c r="AC10" s="265"/>
     </row>
-    <row r="11" spans="1:29" s="275" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" s="275" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="274"/>
       <c r="B11" s="262">
         <v>11</v>
@@ -11568,7 +11565,7 @@
       <c r="AB11" s="265"/>
       <c r="AC11" s="265"/>
     </row>
-    <row r="12" spans="1:29" s="275" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" s="275" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A12" s="274"/>
       <c r="B12" s="262">
         <v>12</v>
@@ -11630,7 +11627,7 @@
       <c r="AB12" s="265"/>
       <c r="AC12" s="265"/>
     </row>
-    <row r="13" spans="1:29" s="275" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" s="275" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="274"/>
       <c r="B13" s="262">
         <v>13</v>
@@ -11692,7 +11689,7 @@
       <c r="AB13" s="265"/>
       <c r="AC13" s="265"/>
     </row>
-    <row r="14" spans="1:29" s="275" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" s="275" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="274"/>
       <c r="B14" s="262">
         <v>14</v>
@@ -11754,7 +11751,7 @@
       <c r="AB14" s="265"/>
       <c r="AC14" s="265"/>
     </row>
-    <row r="15" spans="1:29" s="275" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" s="275" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="274"/>
       <c r="B15" s="272">
         <v>15</v>
@@ -11816,7 +11813,7 @@
       <c r="AB15" s="265"/>
       <c r="AC15" s="265"/>
     </row>
-    <row r="16" spans="1:29" s="275" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" s="275" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A16" s="274"/>
       <c r="B16" s="272">
         <v>19</v>
@@ -11878,7 +11875,7 @@
       <c r="AB16" s="265"/>
       <c r="AC16" s="265"/>
     </row>
-    <row r="17" spans="1:29" s="275" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" s="275" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="274"/>
       <c r="B17" s="272">
         <v>20</v>
@@ -11940,7 +11937,7 @@
       <c r="AB17" s="265"/>
       <c r="AC17" s="265"/>
     </row>
-    <row r="18" spans="1:29" s="275" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" s="275" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="274"/>
       <c r="B18" s="272">
         <v>21</v>
@@ -12002,7 +11999,7 @@
       <c r="AB18" s="265"/>
       <c r="AC18" s="265"/>
     </row>
-    <row r="19" spans="1:29" s="275" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" s="275" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="274"/>
       <c r="B19" s="272">
         <v>23</v>
@@ -12064,7 +12061,7 @@
       <c r="AB19" s="265"/>
       <c r="AC19" s="265"/>
     </row>
-    <row r="20" spans="1:29" s="275" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" s="275" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="274"/>
       <c r="B20" s="272">
         <v>24</v>
@@ -12126,7 +12123,7 @@
       <c r="AB20" s="265"/>
       <c r="AC20" s="265"/>
     </row>
-    <row r="21" spans="1:29" s="275" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" s="275" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="274"/>
       <c r="B21" s="272">
         <v>25</v>
@@ -12188,7 +12185,7 @@
       <c r="AB21" s="265"/>
       <c r="AC21" s="265"/>
     </row>
-    <row r="22" spans="1:29" s="275" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" s="275" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A22" s="274"/>
       <c r="B22" s="262">
         <v>27</v>
@@ -12250,7 +12247,7 @@
       <c r="AB22" s="265"/>
       <c r="AC22" s="265"/>
     </row>
-    <row r="23" spans="1:29" s="207" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" s="207" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="211" t="s">
         <v>392</v>
       </c>
@@ -12316,7 +12313,7 @@
       <c r="AB23" s="206"/>
       <c r="AC23" s="206"/>
     </row>
-    <row r="24" spans="1:29" s="207" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" s="207" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A24" s="211" t="s">
         <v>393</v>
       </c>
@@ -12382,7 +12379,7 @@
       <c r="AB24" s="206"/>
       <c r="AC24" s="206"/>
     </row>
-    <row r="25" spans="1:29" s="207" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" s="207" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" s="211" t="s">
         <v>394</v>
       </c>
@@ -12442,7 +12439,7 @@
       <c r="AB25" s="206"/>
       <c r="AC25" s="206"/>
     </row>
-    <row r="26" spans="1:29" s="207" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" s="207" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="211" t="s">
         <v>395</v>
       </c>
@@ -12508,7 +12505,7 @@
       <c r="AB26" s="206"/>
       <c r="AC26" s="206"/>
     </row>
-    <row r="27" spans="1:29" s="236" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" s="236" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="252" t="s">
         <v>399</v>
       </c>
@@ -12575,7 +12572,7 @@
       <c r="AB27" s="235"/>
       <c r="AC27" s="235"/>
     </row>
-    <row r="28" spans="1:29" s="236" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" s="236" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="229" t="s">
         <v>400</v>
       </c>
@@ -12643,7 +12640,7 @@
       <c r="AB28" s="235"/>
       <c r="AC28" s="235"/>
     </row>
-    <row r="29" spans="1:29" s="236" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" s="236" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="229" t="s">
         <v>401</v>
       </c>
@@ -12713,7 +12710,7 @@
       <c r="AB29" s="235"/>
       <c r="AC29" s="235"/>
     </row>
-    <row r="30" spans="1:29" s="236" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" s="236" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="229" t="s">
         <v>402</v>
       </c>
@@ -12781,7 +12778,7 @@
       <c r="AB30" s="235"/>
       <c r="AC30" s="235"/>
     </row>
-    <row r="31" spans="1:29" s="236" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" s="236" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A31" s="252" t="s">
         <v>403</v>
       </c>
@@ -12836,7 +12833,7 @@
       <c r="AB31" s="235"/>
       <c r="AC31" s="235"/>
     </row>
-    <row r="32" spans="1:29" s="250" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" s="250" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="253" t="s">
         <v>404</v>
       </c>
@@ -12908,7 +12905,7 @@
       <c r="AB32" s="249"/>
       <c r="AC32" s="249"/>
     </row>
-    <row r="33" spans="1:29" s="250" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" s="250" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="242" t="s">
         <v>405</v>
       </c>
@@ -12980,7 +12977,7 @@
       <c r="AB33" s="249"/>
       <c r="AC33" s="249"/>
     </row>
-    <row r="34" spans="1:29" s="250" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" s="250" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A34" s="242" t="s">
         <v>406</v>
       </c>
@@ -13052,7 +13049,7 @@
       <c r="AB34" s="249"/>
       <c r="AC34" s="249"/>
     </row>
-    <row r="35" spans="1:29" s="250" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" s="250" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="242" t="s">
         <v>407</v>
       </c>
@@ -13120,7 +13117,7 @@
       <c r="AB35" s="249"/>
       <c r="AC35" s="249"/>
     </row>
-    <row r="36" spans="1:29" s="250" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" s="250" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="253" t="s">
         <v>408</v>
       </c>
@@ -13192,7 +13189,7 @@
       <c r="AB36" s="249"/>
       <c r="AC36" s="249"/>
     </row>
-    <row r="37" spans="1:29" s="207" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" s="207" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A37" s="259" t="s">
         <v>409</v>
       </c>
@@ -13258,7 +13255,7 @@
       <c r="AB37" s="206"/>
       <c r="AC37" s="206"/>
     </row>
-    <row r="38" spans="1:29" s="360" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" s="360" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="352" t="s">
         <v>506</v>
       </c>
@@ -13316,7 +13313,7 @@
       <c r="AB38" s="359"/>
       <c r="AC38" s="359"/>
     </row>
-    <row r="39" spans="1:29" s="201" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" s="201" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A39" s="254" t="s">
         <v>410</v>
       </c>
@@ -13382,7 +13379,7 @@
       <c r="AB39" s="200"/>
       <c r="AC39" s="200"/>
     </row>
-    <row r="40" spans="1:29" s="201" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" s="201" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A40" s="254" t="s">
         <v>411</v>
       </c>
@@ -13448,7 +13445,7 @@
       <c r="AB40" s="200"/>
       <c r="AC40" s="200"/>
     </row>
-    <row r="41" spans="1:29" s="201" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" s="201" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A41" s="254" t="s">
         <v>420</v>
       </c>
@@ -13511,7 +13508,7 @@
       <c r="AB41" s="200"/>
       <c r="AC41" s="200"/>
     </row>
-    <row r="42" spans="1:29" s="201" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" s="201" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="254" t="s">
         <v>421</v>
       </c>
@@ -13576,7 +13573,7 @@
       <c r="AB42" s="200"/>
       <c r="AC42" s="200"/>
     </row>
-    <row r="43" spans="1:29" s="201" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" s="201" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A43" s="254" t="s">
         <v>422</v>
       </c>
@@ -13639,7 +13636,7 @@
       <c r="AB43" s="200"/>
       <c r="AC43" s="200"/>
     </row>
-    <row r="44" spans="1:29" s="226" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" s="226" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A44" s="258" t="s">
         <v>425</v>
       </c>
@@ -13696,7 +13693,7 @@
       <c r="AB44" s="225"/>
       <c r="AC44" s="225"/>
     </row>
-    <row r="45" spans="1:29" s="226" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" s="226" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A45" s="258" t="s">
         <v>426</v>
       </c>
@@ -13753,43 +13750,43 @@
       <c r="AB45" s="225"/>
       <c r="AC45" s="225"/>
     </row>
-    <row r="46" spans="1:29" s="126" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" s="126" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F46" s="140"/>
       <c r="K46" s="141"/>
       <c r="L46" s="141"/>
       <c r="M46" s="142"/>
     </row>
-    <row r="47" spans="1:29" s="126" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" s="126" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F47" s="140"/>
       <c r="K47" s="141"/>
       <c r="L47" s="141"/>
       <c r="M47" s="142"/>
     </row>
-    <row r="48" spans="1:29" s="126" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" s="126" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F48" s="140"/>
       <c r="K48" s="141"/>
       <c r="L48" s="141"/>
       <c r="M48" s="142"/>
     </row>
-    <row r="49" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F49" s="140"/>
       <c r="K49" s="141"/>
       <c r="L49" s="141"/>
       <c r="M49" s="142"/>
     </row>
-    <row r="50" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F50" s="140"/>
       <c r="K50" s="141"/>
       <c r="L50" s="141"/>
       <c r="M50" s="142"/>
     </row>
-    <row r="51" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F51" s="140"/>
       <c r="K51" s="141"/>
       <c r="L51" s="141"/>
       <c r="M51" s="142"/>
     </row>
-    <row r="52" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F52" s="140"/>
       <c r="J52" s="126" t="s">
         <v>317</v>
@@ -13798,2003 +13795,2003 @@
       <c r="L52" s="141"/>
       <c r="M52" s="142"/>
     </row>
-    <row r="53" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F53" s="140"/>
       <c r="K53" s="141"/>
       <c r="L53" s="141"/>
       <c r="M53" s="142"/>
     </row>
-    <row r="54" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F54" s="140"/>
       <c r="K54" s="141"/>
       <c r="L54" s="141"/>
       <c r="M54" s="142"/>
     </row>
-    <row r="55" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F55" s="140"/>
       <c r="K55" s="141"/>
       <c r="L55" s="141"/>
       <c r="M55" s="142"/>
     </row>
-    <row r="56" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F56" s="140"/>
       <c r="K56" s="141"/>
       <c r="L56" s="141"/>
       <c r="M56" s="142"/>
     </row>
-    <row r="57" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F57" s="140"/>
       <c r="K57" s="141"/>
       <c r="L57" s="141"/>
       <c r="M57" s="142"/>
     </row>
-    <row r="58" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F58" s="140"/>
       <c r="K58" s="141"/>
       <c r="L58" s="141"/>
       <c r="M58" s="142"/>
     </row>
-    <row r="59" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F59" s="140"/>
       <c r="K59" s="141"/>
       <c r="L59" s="141"/>
       <c r="M59" s="142"/>
     </row>
-    <row r="60" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:17" s="126" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F60" s="140"/>
       <c r="K60" s="141"/>
       <c r="L60" s="141"/>
       <c r="M60" s="142"/>
     </row>
-    <row r="61" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:17" x14ac:dyDescent="0.25">
       <c r="P61" s="126"/>
       <c r="Q61" s="126"/>
     </row>
-    <row r="62" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:17" x14ac:dyDescent="0.25">
       <c r="P62" s="126"/>
       <c r="Q62" s="126"/>
     </row>
-    <row r="63" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:17" x14ac:dyDescent="0.25">
       <c r="P63" s="126"/>
       <c r="Q63" s="126"/>
     </row>
-    <row r="64" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:17" x14ac:dyDescent="0.25">
       <c r="P64" s="126"/>
       <c r="Q64" s="126"/>
     </row>
-    <row r="65" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P65" s="126"/>
       <c r="Q65" s="126"/>
     </row>
-    <row r="66" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P66" s="126"/>
       <c r="Q66" s="126"/>
     </row>
-    <row r="67" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P67" s="126"/>
       <c r="Q67" s="126"/>
     </row>
-    <row r="68" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P68" s="126"/>
       <c r="Q68" s="126"/>
     </row>
-    <row r="69" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P69" s="126"/>
       <c r="Q69" s="126"/>
     </row>
-    <row r="70" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P70" s="126"/>
       <c r="Q70" s="126"/>
     </row>
-    <row r="71" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P71" s="126"/>
       <c r="Q71" s="126"/>
     </row>
-    <row r="72" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P72" s="126"/>
       <c r="Q72" s="126"/>
     </row>
-    <row r="73" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P73" s="126"/>
       <c r="Q73" s="126"/>
     </row>
-    <row r="74" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P74" s="126"/>
       <c r="Q74" s="126"/>
     </row>
-    <row r="75" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P75" s="126"/>
       <c r="Q75" s="126"/>
     </row>
-    <row r="76" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P76" s="126"/>
       <c r="Q76" s="126"/>
     </row>
-    <row r="77" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P77" s="126"/>
       <c r="Q77" s="126"/>
     </row>
-    <row r="78" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P78" s="126"/>
       <c r="Q78" s="126"/>
     </row>
-    <row r="79" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P79" s="126"/>
       <c r="Q79" s="126"/>
     </row>
-    <row r="80" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P80" s="126"/>
       <c r="Q80" s="126"/>
     </row>
-    <row r="81" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P81" s="126"/>
       <c r="Q81" s="126"/>
     </row>
-    <row r="82" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P82" s="126"/>
       <c r="Q82" s="126"/>
     </row>
-    <row r="83" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P83" s="126"/>
       <c r="Q83" s="126"/>
     </row>
-    <row r="84" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P84" s="126"/>
       <c r="Q84" s="126"/>
     </row>
-    <row r="85" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P85" s="126"/>
       <c r="Q85" s="126"/>
     </row>
-    <row r="86" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P86" s="126"/>
       <c r="Q86" s="126"/>
     </row>
-    <row r="87" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P87" s="126"/>
       <c r="Q87" s="126"/>
     </row>
-    <row r="88" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P88" s="126"/>
       <c r="Q88" s="126"/>
     </row>
-    <row r="89" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P89" s="126"/>
       <c r="Q89" s="126"/>
     </row>
-    <row r="90" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P90" s="126"/>
       <c r="Q90" s="126"/>
     </row>
-    <row r="91" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P91" s="126"/>
       <c r="Q91" s="126"/>
     </row>
-    <row r="92" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P92" s="126"/>
       <c r="Q92" s="126"/>
     </row>
-    <row r="93" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P93" s="126"/>
       <c r="Q93" s="126"/>
     </row>
-    <row r="94" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P94" s="126"/>
       <c r="Q94" s="126"/>
     </row>
-    <row r="95" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P95" s="126"/>
       <c r="Q95" s="126"/>
     </row>
-    <row r="96" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P96" s="126"/>
       <c r="Q96" s="126"/>
     </row>
-    <row r="97" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P97" s="126"/>
       <c r="Q97" s="126"/>
     </row>
-    <row r="98" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P98" s="126"/>
       <c r="Q98" s="126"/>
     </row>
-    <row r="99" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P99" s="126"/>
       <c r="Q99" s="126"/>
     </row>
-    <row r="100" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P100" s="126"/>
       <c r="Q100" s="126"/>
     </row>
-    <row r="101" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P101" s="126"/>
       <c r="Q101" s="126"/>
     </row>
-    <row r="102" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P102" s="126"/>
       <c r="Q102" s="126"/>
     </row>
-    <row r="103" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P103" s="126"/>
       <c r="Q103" s="126"/>
     </row>
-    <row r="104" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P104" s="126"/>
       <c r="Q104" s="126"/>
     </row>
-    <row r="105" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P105" s="126"/>
       <c r="Q105" s="126"/>
     </row>
-    <row r="106" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P106" s="126"/>
       <c r="Q106" s="126"/>
     </row>
-    <row r="107" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P107" s="126"/>
       <c r="Q107" s="126"/>
     </row>
-    <row r="108" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P108" s="126"/>
       <c r="Q108" s="126"/>
     </row>
-    <row r="109" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P109" s="126"/>
       <c r="Q109" s="126"/>
     </row>
-    <row r="110" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P110" s="126"/>
       <c r="Q110" s="126"/>
     </row>
-    <row r="111" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P111" s="126"/>
       <c r="Q111" s="126"/>
     </row>
-    <row r="112" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P112" s="126"/>
       <c r="Q112" s="126"/>
     </row>
-    <row r="113" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P113" s="126"/>
       <c r="Q113" s="126"/>
     </row>
-    <row r="114" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P114" s="126"/>
       <c r="Q114" s="126"/>
     </row>
-    <row r="115" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P115" s="126"/>
       <c r="Q115" s="126"/>
     </row>
-    <row r="116" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P116" s="126"/>
       <c r="Q116" s="126"/>
     </row>
-    <row r="117" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P117" s="126"/>
       <c r="Q117" s="126"/>
     </row>
-    <row r="118" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P118" s="126"/>
       <c r="Q118" s="126"/>
     </row>
-    <row r="119" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P119" s="126"/>
       <c r="Q119" s="126"/>
     </row>
-    <row r="120" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P120" s="126"/>
       <c r="Q120" s="126"/>
     </row>
-    <row r="121" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P121" s="126"/>
       <c r="Q121" s="126"/>
     </row>
-    <row r="122" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P122" s="126"/>
       <c r="Q122" s="126"/>
     </row>
-    <row r="123" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P123" s="126"/>
       <c r="Q123" s="126"/>
     </row>
-    <row r="124" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P124" s="126"/>
       <c r="Q124" s="126"/>
     </row>
-    <row r="125" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P125" s="126"/>
       <c r="Q125" s="126"/>
     </row>
-    <row r="126" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P126" s="126"/>
       <c r="Q126" s="126"/>
     </row>
-    <row r="127" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P127" s="126"/>
       <c r="Q127" s="126"/>
     </row>
-    <row r="128" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P128" s="126"/>
       <c r="Q128" s="126"/>
     </row>
-    <row r="129" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P129" s="126"/>
       <c r="Q129" s="126"/>
     </row>
-    <row r="130" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P130" s="126"/>
       <c r="Q130" s="126"/>
     </row>
-    <row r="131" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P131" s="126"/>
       <c r="Q131" s="126"/>
     </row>
-    <row r="132" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P132" s="126"/>
       <c r="Q132" s="126"/>
     </row>
-    <row r="133" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P133" s="126"/>
       <c r="Q133" s="126"/>
     </row>
-    <row r="134" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P134" s="126"/>
       <c r="Q134" s="126"/>
     </row>
-    <row r="135" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P135" s="126"/>
       <c r="Q135" s="126"/>
     </row>
-    <row r="136" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P136" s="126"/>
       <c r="Q136" s="126"/>
     </row>
-    <row r="137" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P137" s="126"/>
       <c r="Q137" s="126"/>
     </row>
-    <row r="138" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P138" s="126"/>
       <c r="Q138" s="126"/>
     </row>
-    <row r="139" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P139" s="126"/>
       <c r="Q139" s="126"/>
     </row>
-    <row r="140" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P140" s="126"/>
       <c r="Q140" s="126"/>
     </row>
-    <row r="141" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P141" s="126"/>
       <c r="Q141" s="126"/>
     </row>
-    <row r="142" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P142" s="126"/>
       <c r="Q142" s="126"/>
     </row>
-    <row r="143" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P143" s="126"/>
       <c r="Q143" s="126"/>
     </row>
-    <row r="144" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P144" s="126"/>
       <c r="Q144" s="126"/>
     </row>
-    <row r="145" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P145" s="126"/>
       <c r="Q145" s="126"/>
     </row>
-    <row r="146" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P146" s="126"/>
       <c r="Q146" s="126"/>
     </row>
-    <row r="147" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P147" s="126"/>
       <c r="Q147" s="126"/>
     </row>
-    <row r="148" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P148" s="126"/>
       <c r="Q148" s="126"/>
     </row>
-    <row r="149" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P149" s="126"/>
       <c r="Q149" s="126"/>
     </row>
-    <row r="150" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P150" s="126"/>
       <c r="Q150" s="126"/>
     </row>
-    <row r="151" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P151" s="126"/>
       <c r="Q151" s="126"/>
     </row>
-    <row r="152" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P152" s="126"/>
       <c r="Q152" s="126"/>
     </row>
-    <row r="153" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P153" s="126"/>
       <c r="Q153" s="126"/>
     </row>
-    <row r="154" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P154" s="126"/>
       <c r="Q154" s="126"/>
     </row>
-    <row r="155" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P155" s="126"/>
       <c r="Q155" s="126"/>
     </row>
-    <row r="156" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P156" s="126"/>
       <c r="Q156" s="126"/>
     </row>
-    <row r="157" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P157" s="126"/>
       <c r="Q157" s="126"/>
     </row>
-    <row r="158" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P158" s="126"/>
       <c r="Q158" s="126"/>
     </row>
-    <row r="159" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P159" s="126"/>
       <c r="Q159" s="126"/>
     </row>
-    <row r="160" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P160" s="126"/>
       <c r="Q160" s="126"/>
     </row>
-    <row r="161" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P161" s="126"/>
       <c r="Q161" s="126"/>
     </row>
-    <row r="162" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P162" s="126"/>
       <c r="Q162" s="126"/>
     </row>
-    <row r="163" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P163" s="126"/>
       <c r="Q163" s="126"/>
     </row>
-    <row r="164" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P164" s="126"/>
       <c r="Q164" s="126"/>
     </row>
-    <row r="165" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P165" s="126"/>
       <c r="Q165" s="126"/>
     </row>
-    <row r="166" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P166" s="126"/>
       <c r="Q166" s="126"/>
     </row>
-    <row r="167" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P167" s="126"/>
       <c r="Q167" s="126"/>
     </row>
-    <row r="168" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P168" s="126"/>
       <c r="Q168" s="126"/>
     </row>
-    <row r="169" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P169" s="126"/>
       <c r="Q169" s="126"/>
     </row>
-    <row r="170" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P170" s="126"/>
       <c r="Q170" s="126"/>
     </row>
-    <row r="171" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P171" s="126"/>
       <c r="Q171" s="126"/>
     </row>
-    <row r="172" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P172" s="126"/>
       <c r="Q172" s="126"/>
     </row>
-    <row r="173" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P173" s="126"/>
       <c r="Q173" s="126"/>
     </row>
-    <row r="174" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P174" s="126"/>
       <c r="Q174" s="126"/>
     </row>
-    <row r="175" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P175" s="126"/>
       <c r="Q175" s="126"/>
     </row>
-    <row r="176" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P176" s="126"/>
       <c r="Q176" s="126"/>
     </row>
-    <row r="177" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P177" s="126"/>
       <c r="Q177" s="126"/>
     </row>
-    <row r="178" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P178" s="126"/>
       <c r="Q178" s="126"/>
     </row>
-    <row r="179" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P179" s="126"/>
       <c r="Q179" s="126"/>
     </row>
-    <row r="180" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P180" s="126"/>
       <c r="Q180" s="126"/>
     </row>
-    <row r="181" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P181" s="126"/>
       <c r="Q181" s="126"/>
     </row>
-    <row r="182" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P182" s="126"/>
       <c r="Q182" s="126"/>
     </row>
-    <row r="183" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P183" s="126"/>
       <c r="Q183" s="126"/>
     </row>
-    <row r="184" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P184" s="126"/>
       <c r="Q184" s="126"/>
     </row>
-    <row r="185" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P185" s="126"/>
       <c r="Q185" s="126"/>
     </row>
-    <row r="186" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P186" s="126"/>
       <c r="Q186" s="126"/>
     </row>
-    <row r="187" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P187" s="126"/>
       <c r="Q187" s="126"/>
     </row>
-    <row r="188" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P188" s="126"/>
       <c r="Q188" s="126"/>
     </row>
-    <row r="189" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="189" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P189" s="126"/>
       <c r="Q189" s="126"/>
     </row>
-    <row r="190" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P190" s="126"/>
       <c r="Q190" s="126"/>
     </row>
-    <row r="191" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="191" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P191" s="126"/>
       <c r="Q191" s="126"/>
     </row>
-    <row r="192" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="192" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P192" s="126"/>
       <c r="Q192" s="126"/>
     </row>
-    <row r="193" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="193" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P193" s="126"/>
       <c r="Q193" s="126"/>
     </row>
-    <row r="194" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="194" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P194" s="126"/>
       <c r="Q194" s="126"/>
     </row>
-    <row r="195" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="195" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P195" s="126"/>
       <c r="Q195" s="126"/>
     </row>
-    <row r="196" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="196" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P196" s="126"/>
       <c r="Q196" s="126"/>
     </row>
-    <row r="197" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="197" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P197" s="126"/>
       <c r="Q197" s="126"/>
     </row>
-    <row r="198" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="198" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P198" s="126"/>
       <c r="Q198" s="126"/>
     </row>
-    <row r="199" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="199" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P199" s="126"/>
       <c r="Q199" s="126"/>
     </row>
-    <row r="200" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="200" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P200" s="126"/>
       <c r="Q200" s="126"/>
     </row>
-    <row r="201" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="201" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P201" s="126"/>
       <c r="Q201" s="126"/>
     </row>
-    <row r="202" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="202" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P202" s="126"/>
       <c r="Q202" s="126"/>
     </row>
-    <row r="203" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="203" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P203" s="126"/>
       <c r="Q203" s="126"/>
     </row>
-    <row r="204" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="204" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P204" s="126"/>
       <c r="Q204" s="126"/>
     </row>
-    <row r="205" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="205" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P205" s="126"/>
       <c r="Q205" s="126"/>
     </row>
-    <row r="206" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="206" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P206" s="126"/>
       <c r="Q206" s="126"/>
     </row>
-    <row r="207" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="207" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P207" s="126"/>
       <c r="Q207" s="126"/>
     </row>
-    <row r="208" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="208" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P208" s="126"/>
       <c r="Q208" s="126"/>
     </row>
-    <row r="209" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="209" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P209" s="126"/>
       <c r="Q209" s="126"/>
     </row>
-    <row r="210" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="210" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P210" s="126"/>
       <c r="Q210" s="126"/>
     </row>
-    <row r="211" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="211" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P211" s="126"/>
       <c r="Q211" s="126"/>
     </row>
-    <row r="212" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="212" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P212" s="126"/>
       <c r="Q212" s="126"/>
     </row>
-    <row r="213" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="213" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P213" s="126"/>
       <c r="Q213" s="126"/>
     </row>
-    <row r="214" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="214" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P214" s="126"/>
       <c r="Q214" s="126"/>
     </row>
-    <row r="215" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="215" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P215" s="126"/>
       <c r="Q215" s="126"/>
     </row>
-    <row r="216" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="216" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P216" s="126"/>
       <c r="Q216" s="126"/>
     </row>
-    <row r="217" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="217" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P217" s="126"/>
       <c r="Q217" s="126"/>
     </row>
-    <row r="218" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="218" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P218" s="126"/>
       <c r="Q218" s="126"/>
     </row>
-    <row r="219" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P219" s="126"/>
       <c r="Q219" s="126"/>
     </row>
-    <row r="220" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="220" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P220" s="126"/>
       <c r="Q220" s="126"/>
     </row>
-    <row r="221" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="221" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P221" s="126"/>
       <c r="Q221" s="126"/>
     </row>
-    <row r="222" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="222" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P222" s="126"/>
       <c r="Q222" s="126"/>
     </row>
-    <row r="223" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="223" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P223" s="126"/>
       <c r="Q223" s="126"/>
     </row>
-    <row r="224" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="224" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P224" s="126"/>
       <c r="Q224" s="126"/>
     </row>
-    <row r="225" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="225" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P225" s="126"/>
       <c r="Q225" s="126"/>
     </row>
-    <row r="226" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="226" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P226" s="126"/>
       <c r="Q226" s="126"/>
     </row>
-    <row r="227" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="227" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P227" s="126"/>
       <c r="Q227" s="126"/>
     </row>
-    <row r="228" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="228" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P228" s="126"/>
       <c r="Q228" s="126"/>
     </row>
-    <row r="229" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="229" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P229" s="126"/>
       <c r="Q229" s="126"/>
     </row>
-    <row r="230" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="230" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P230" s="126"/>
       <c r="Q230" s="126"/>
     </row>
-    <row r="231" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="231" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P231" s="126"/>
       <c r="Q231" s="126"/>
     </row>
-    <row r="232" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="232" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P232" s="126"/>
       <c r="Q232" s="126"/>
     </row>
-    <row r="233" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="233" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P233" s="126"/>
       <c r="Q233" s="126"/>
     </row>
-    <row r="234" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="234" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P234" s="126"/>
       <c r="Q234" s="126"/>
     </row>
-    <row r="235" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="235" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P235" s="126"/>
       <c r="Q235" s="126"/>
     </row>
-    <row r="236" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="236" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P236" s="126"/>
       <c r="Q236" s="126"/>
     </row>
-    <row r="237" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="237" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P237" s="126"/>
       <c r="Q237" s="126"/>
     </row>
-    <row r="238" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="238" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P238" s="126"/>
       <c r="Q238" s="126"/>
     </row>
-    <row r="239" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="239" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P239" s="126"/>
       <c r="Q239" s="126"/>
     </row>
-    <row r="240" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="240" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P240" s="126"/>
       <c r="Q240" s="126"/>
     </row>
-    <row r="241" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="241" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P241" s="126"/>
       <c r="Q241" s="126"/>
     </row>
-    <row r="242" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="242" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P242" s="126"/>
       <c r="Q242" s="126"/>
     </row>
-    <row r="243" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="243" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P243" s="126"/>
       <c r="Q243" s="126"/>
     </row>
-    <row r="244" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="244" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P244" s="126"/>
       <c r="Q244" s="126"/>
     </row>
-    <row r="245" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="245" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P245" s="126"/>
       <c r="Q245" s="126"/>
     </row>
-    <row r="246" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="246" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P246" s="126"/>
       <c r="Q246" s="126"/>
     </row>
-    <row r="247" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="247" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P247" s="126"/>
       <c r="Q247" s="126"/>
     </row>
-    <row r="248" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="248" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P248" s="126"/>
       <c r="Q248" s="126"/>
     </row>
-    <row r="249" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="249" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P249" s="126"/>
       <c r="Q249" s="126"/>
     </row>
-    <row r="250" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="250" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P250" s="126"/>
       <c r="Q250" s="126"/>
     </row>
-    <row r="251" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="251" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P251" s="126"/>
       <c r="Q251" s="126"/>
     </row>
-    <row r="252" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="252" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P252" s="126"/>
       <c r="Q252" s="126"/>
     </row>
-    <row r="253" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="253" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P253" s="126"/>
       <c r="Q253" s="126"/>
     </row>
-    <row r="254" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="254" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P254" s="126"/>
       <c r="Q254" s="126"/>
     </row>
-    <row r="255" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="255" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P255" s="126"/>
       <c r="Q255" s="126"/>
     </row>
-    <row r="256" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="256" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P256" s="126"/>
       <c r="Q256" s="126"/>
     </row>
-    <row r="257" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="257" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P257" s="126"/>
       <c r="Q257" s="126"/>
     </row>
-    <row r="258" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="258" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P258" s="126"/>
       <c r="Q258" s="126"/>
     </row>
-    <row r="259" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="259" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P259" s="126"/>
       <c r="Q259" s="126"/>
     </row>
-    <row r="260" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="260" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P260" s="126"/>
       <c r="Q260" s="126"/>
     </row>
-    <row r="261" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="261" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P261" s="126"/>
       <c r="Q261" s="126"/>
     </row>
-    <row r="262" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="262" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P262" s="126"/>
       <c r="Q262" s="126"/>
     </row>
-    <row r="263" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="263" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P263" s="126"/>
       <c r="Q263" s="126"/>
     </row>
-    <row r="264" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="264" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P264" s="126"/>
       <c r="Q264" s="126"/>
     </row>
-    <row r="265" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="265" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P265" s="126"/>
       <c r="Q265" s="126"/>
     </row>
-    <row r="266" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="266" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P266" s="126"/>
       <c r="Q266" s="126"/>
     </row>
-    <row r="267" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="267" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P267" s="126"/>
       <c r="Q267" s="126"/>
     </row>
-    <row r="268" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="268" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P268" s="126"/>
       <c r="Q268" s="126"/>
     </row>
-    <row r="269" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="269" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P269" s="126"/>
       <c r="Q269" s="126"/>
     </row>
-    <row r="270" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="270" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P270" s="126"/>
       <c r="Q270" s="126"/>
     </row>
-    <row r="271" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="271" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P271" s="126"/>
       <c r="Q271" s="126"/>
     </row>
-    <row r="272" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="272" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P272" s="126"/>
       <c r="Q272" s="126"/>
     </row>
-    <row r="273" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="273" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P273" s="126"/>
       <c r="Q273" s="126"/>
     </row>
-    <row r="274" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="274" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P274" s="126"/>
       <c r="Q274" s="126"/>
     </row>
-    <row r="275" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="275" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P275" s="126"/>
       <c r="Q275" s="126"/>
     </row>
-    <row r="276" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="276" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P276" s="126"/>
       <c r="Q276" s="126"/>
     </row>
-    <row r="277" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="277" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P277" s="126"/>
       <c r="Q277" s="126"/>
     </row>
-    <row r="278" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="278" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P278" s="126"/>
       <c r="Q278" s="126"/>
     </row>
-    <row r="279" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="279" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P279" s="126"/>
       <c r="Q279" s="126"/>
     </row>
-    <row r="280" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="280" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P280" s="126"/>
       <c r="Q280" s="126"/>
     </row>
-    <row r="281" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="281" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P281" s="126"/>
       <c r="Q281" s="126"/>
     </row>
-    <row r="282" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="282" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P282" s="126"/>
       <c r="Q282" s="126"/>
     </row>
-    <row r="283" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="283" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P283" s="126"/>
       <c r="Q283" s="126"/>
     </row>
-    <row r="284" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="284" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P284" s="126"/>
       <c r="Q284" s="126"/>
     </row>
-    <row r="285" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="285" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P285" s="126"/>
       <c r="Q285" s="126"/>
     </row>
-    <row r="286" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="286" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P286" s="126"/>
       <c r="Q286" s="126"/>
     </row>
-    <row r="287" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="287" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P287" s="126"/>
       <c r="Q287" s="126"/>
     </row>
-    <row r="288" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="288" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P288" s="126"/>
       <c r="Q288" s="126"/>
     </row>
-    <row r="289" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="289" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P289" s="126"/>
       <c r="Q289" s="126"/>
     </row>
-    <row r="290" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="290" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P290" s="126"/>
       <c r="Q290" s="126"/>
     </row>
-    <row r="291" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="291" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P291" s="126"/>
       <c r="Q291" s="126"/>
     </row>
-    <row r="292" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="292" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P292" s="126"/>
       <c r="Q292" s="126"/>
     </row>
-    <row r="293" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="293" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P293" s="126"/>
       <c r="Q293" s="126"/>
     </row>
-    <row r="294" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="294" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P294" s="126"/>
       <c r="Q294" s="126"/>
     </row>
-    <row r="295" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="295" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P295" s="126"/>
       <c r="Q295" s="126"/>
     </row>
-    <row r="296" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="296" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P296" s="126"/>
       <c r="Q296" s="126"/>
     </row>
-    <row r="297" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="297" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P297" s="126"/>
       <c r="Q297" s="126"/>
     </row>
-    <row r="298" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="298" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P298" s="126"/>
       <c r="Q298" s="126"/>
     </row>
-    <row r="299" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="299" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P299" s="126"/>
       <c r="Q299" s="126"/>
     </row>
-    <row r="300" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="300" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P300" s="126"/>
       <c r="Q300" s="126"/>
     </row>
-    <row r="301" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="301" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P301" s="126"/>
       <c r="Q301" s="126"/>
     </row>
-    <row r="302" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="302" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P302" s="126"/>
       <c r="Q302" s="126"/>
     </row>
-    <row r="303" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="303" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P303" s="126"/>
       <c r="Q303" s="126"/>
     </row>
-    <row r="304" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="304" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P304" s="126"/>
       <c r="Q304" s="126"/>
     </row>
-    <row r="305" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="305" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P305" s="126"/>
       <c r="Q305" s="126"/>
     </row>
-    <row r="306" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="306" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P306" s="126"/>
       <c r="Q306" s="126"/>
     </row>
-    <row r="307" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="307" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P307" s="126"/>
       <c r="Q307" s="126"/>
     </row>
-    <row r="308" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="308" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P308" s="126"/>
       <c r="Q308" s="126"/>
     </row>
-    <row r="309" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="309" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P309" s="126"/>
       <c r="Q309" s="126"/>
     </row>
-    <row r="310" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="310" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P310" s="126"/>
       <c r="Q310" s="126"/>
     </row>
-    <row r="311" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="311" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P311" s="126"/>
       <c r="Q311" s="126"/>
     </row>
-    <row r="312" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="312" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P312" s="126"/>
       <c r="Q312" s="126"/>
     </row>
-    <row r="313" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="313" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P313" s="126"/>
       <c r="Q313" s="126"/>
     </row>
-    <row r="314" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="314" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P314" s="126"/>
       <c r="Q314" s="126"/>
     </row>
-    <row r="315" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="315" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P315" s="126"/>
       <c r="Q315" s="126"/>
     </row>
-    <row r="316" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="316" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P316" s="126"/>
       <c r="Q316" s="126"/>
     </row>
-    <row r="317" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="317" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P317" s="126"/>
       <c r="Q317" s="126"/>
     </row>
-    <row r="318" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="318" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P318" s="126"/>
       <c r="Q318" s="126"/>
     </row>
-    <row r="319" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="319" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P319" s="126"/>
       <c r="Q319" s="126"/>
     </row>
-    <row r="320" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="320" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P320" s="126"/>
       <c r="Q320" s="126"/>
     </row>
-    <row r="321" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="321" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P321" s="126"/>
       <c r="Q321" s="126"/>
     </row>
-    <row r="322" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="322" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P322" s="126"/>
       <c r="Q322" s="126"/>
     </row>
-    <row r="323" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="323" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P323" s="126"/>
       <c r="Q323" s="126"/>
     </row>
-    <row r="324" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="324" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P324" s="126"/>
       <c r="Q324" s="126"/>
     </row>
-    <row r="325" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="325" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P325" s="126"/>
       <c r="Q325" s="126"/>
     </row>
-    <row r="326" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="326" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P326" s="126"/>
       <c r="Q326" s="126"/>
     </row>
-    <row r="327" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="327" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P327" s="126"/>
       <c r="Q327" s="126"/>
     </row>
-    <row r="328" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="328" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P328" s="126"/>
       <c r="Q328" s="126"/>
     </row>
-    <row r="329" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="329" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P329" s="126"/>
       <c r="Q329" s="126"/>
     </row>
-    <row r="330" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="330" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P330" s="126"/>
       <c r="Q330" s="126"/>
     </row>
-    <row r="331" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="331" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P331" s="126"/>
       <c r="Q331" s="126"/>
     </row>
-    <row r="332" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="332" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P332" s="126"/>
       <c r="Q332" s="126"/>
     </row>
-    <row r="333" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="333" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P333" s="126"/>
       <c r="Q333" s="126"/>
     </row>
-    <row r="334" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="334" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P334" s="126"/>
       <c r="Q334" s="126"/>
     </row>
-    <row r="335" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="335" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P335" s="126"/>
       <c r="Q335" s="126"/>
     </row>
-    <row r="336" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="336" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P336" s="126"/>
       <c r="Q336" s="126"/>
     </row>
-    <row r="337" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="337" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P337" s="126"/>
       <c r="Q337" s="126"/>
     </row>
-    <row r="338" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="338" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P338" s="126"/>
       <c r="Q338" s="126"/>
     </row>
-    <row r="339" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="339" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P339" s="126"/>
       <c r="Q339" s="126"/>
     </row>
-    <row r="340" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="340" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P340" s="126"/>
       <c r="Q340" s="126"/>
     </row>
-    <row r="341" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="341" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P341" s="126"/>
       <c r="Q341" s="126"/>
     </row>
-    <row r="342" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="342" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P342" s="126"/>
       <c r="Q342" s="126"/>
     </row>
-    <row r="343" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="343" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P343" s="126"/>
       <c r="Q343" s="126"/>
     </row>
-    <row r="344" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="344" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P344" s="126"/>
       <c r="Q344" s="126"/>
     </row>
-    <row r="345" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="345" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P345" s="126"/>
       <c r="Q345" s="126"/>
     </row>
-    <row r="346" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="346" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P346" s="126"/>
       <c r="Q346" s="126"/>
     </row>
-    <row r="347" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="347" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P347" s="126"/>
       <c r="Q347" s="126"/>
     </row>
-    <row r="348" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="348" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P348" s="126"/>
       <c r="Q348" s="126"/>
     </row>
-    <row r="349" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="349" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P349" s="126"/>
       <c r="Q349" s="126"/>
     </row>
-    <row r="350" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="350" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P350" s="126"/>
       <c r="Q350" s="126"/>
     </row>
-    <row r="351" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="351" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P351" s="126"/>
       <c r="Q351" s="126"/>
     </row>
-    <row r="352" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="352" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P352" s="126"/>
       <c r="Q352" s="126"/>
     </row>
-    <row r="353" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="353" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P353" s="126"/>
       <c r="Q353" s="126"/>
     </row>
-    <row r="354" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="354" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P354" s="126"/>
       <c r="Q354" s="126"/>
     </row>
-    <row r="355" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="355" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P355" s="126"/>
       <c r="Q355" s="126"/>
     </row>
-    <row r="356" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="356" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P356" s="126"/>
       <c r="Q356" s="126"/>
     </row>
-    <row r="357" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="357" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P357" s="126"/>
       <c r="Q357" s="126"/>
     </row>
-    <row r="358" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="358" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P358" s="126"/>
       <c r="Q358" s="126"/>
     </row>
-    <row r="359" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="359" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P359" s="126"/>
       <c r="Q359" s="126"/>
     </row>
-    <row r="360" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="360" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P360" s="126"/>
       <c r="Q360" s="126"/>
     </row>
-    <row r="361" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="361" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P361" s="126"/>
       <c r="Q361" s="126"/>
     </row>
-    <row r="362" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="362" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P362" s="126"/>
       <c r="Q362" s="126"/>
     </row>
-    <row r="363" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="363" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P363" s="126"/>
       <c r="Q363" s="126"/>
     </row>
-    <row r="364" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="364" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P364" s="126"/>
       <c r="Q364" s="126"/>
     </row>
-    <row r="365" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="365" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P365" s="126"/>
       <c r="Q365" s="126"/>
     </row>
-    <row r="366" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="366" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P366" s="126"/>
       <c r="Q366" s="126"/>
     </row>
-    <row r="367" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="367" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P367" s="126"/>
       <c r="Q367" s="126"/>
     </row>
-    <row r="368" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="368" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P368" s="126"/>
       <c r="Q368" s="126"/>
     </row>
-    <row r="369" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="369" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P369" s="126"/>
       <c r="Q369" s="126"/>
     </row>
-    <row r="370" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="370" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P370" s="126"/>
       <c r="Q370" s="126"/>
     </row>
-    <row r="371" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="371" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P371" s="126"/>
       <c r="Q371" s="126"/>
     </row>
-    <row r="372" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="372" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P372" s="126"/>
       <c r="Q372" s="126"/>
     </row>
-    <row r="373" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="373" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P373" s="126"/>
       <c r="Q373" s="126"/>
     </row>
-    <row r="374" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="374" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P374" s="126"/>
       <c r="Q374" s="126"/>
     </row>
-    <row r="375" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="375" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P375" s="126"/>
       <c r="Q375" s="126"/>
     </row>
-    <row r="376" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="376" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P376" s="126"/>
       <c r="Q376" s="126"/>
     </row>
-    <row r="377" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="377" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P377" s="126"/>
       <c r="Q377" s="126"/>
     </row>
-    <row r="378" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="378" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P378" s="126"/>
       <c r="Q378" s="126"/>
     </row>
-    <row r="379" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="379" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P379" s="126"/>
       <c r="Q379" s="126"/>
     </row>
-    <row r="380" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="380" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P380" s="126"/>
       <c r="Q380" s="126"/>
     </row>
-    <row r="381" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="381" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P381" s="126"/>
       <c r="Q381" s="126"/>
     </row>
-    <row r="382" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="382" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P382" s="126"/>
       <c r="Q382" s="126"/>
     </row>
-    <row r="383" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="383" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P383" s="126"/>
       <c r="Q383" s="126"/>
     </row>
-    <row r="384" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="384" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P384" s="126"/>
       <c r="Q384" s="126"/>
     </row>
-    <row r="385" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="385" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P385" s="126"/>
       <c r="Q385" s="126"/>
     </row>
-    <row r="386" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="386" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P386" s="126"/>
       <c r="Q386" s="126"/>
     </row>
-    <row r="387" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="387" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P387" s="126"/>
       <c r="Q387" s="126"/>
     </row>
-    <row r="388" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="388" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P388" s="126"/>
       <c r="Q388" s="126"/>
     </row>
-    <row r="389" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="389" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P389" s="126"/>
       <c r="Q389" s="126"/>
     </row>
-    <row r="390" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="390" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P390" s="126"/>
       <c r="Q390" s="126"/>
     </row>
-    <row r="391" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="391" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P391" s="126"/>
       <c r="Q391" s="126"/>
     </row>
-    <row r="392" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="392" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P392" s="126"/>
       <c r="Q392" s="126"/>
     </row>
-    <row r="393" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="393" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P393" s="126"/>
       <c r="Q393" s="126"/>
     </row>
-    <row r="394" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="394" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P394" s="126"/>
       <c r="Q394" s="126"/>
     </row>
-    <row r="395" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="395" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P395" s="126"/>
       <c r="Q395" s="126"/>
     </row>
-    <row r="396" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="396" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P396" s="126"/>
       <c r="Q396" s="126"/>
     </row>
-    <row r="397" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="397" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P397" s="126"/>
       <c r="Q397" s="126"/>
     </row>
-    <row r="398" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="398" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P398" s="126"/>
       <c r="Q398" s="126"/>
     </row>
-    <row r="399" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="399" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P399" s="126"/>
       <c r="Q399" s="126"/>
     </row>
-    <row r="400" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="400" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P400" s="126"/>
       <c r="Q400" s="126"/>
     </row>
-    <row r="401" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="401" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P401" s="126"/>
       <c r="Q401" s="126"/>
     </row>
-    <row r="402" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="402" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P402" s="126"/>
       <c r="Q402" s="126"/>
     </row>
-    <row r="403" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="403" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P403" s="126"/>
       <c r="Q403" s="126"/>
     </row>
-    <row r="404" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="404" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P404" s="126"/>
       <c r="Q404" s="126"/>
     </row>
-    <row r="405" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="405" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P405" s="126"/>
       <c r="Q405" s="126"/>
     </row>
-    <row r="406" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="406" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P406" s="126"/>
       <c r="Q406" s="126"/>
     </row>
-    <row r="407" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="407" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P407" s="126"/>
       <c r="Q407" s="126"/>
     </row>
-    <row r="408" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="408" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P408" s="126"/>
       <c r="Q408" s="126"/>
     </row>
-    <row r="409" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="409" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P409" s="126"/>
       <c r="Q409" s="126"/>
     </row>
-    <row r="410" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="410" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P410" s="126"/>
       <c r="Q410" s="126"/>
     </row>
-    <row r="411" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="411" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P411" s="126"/>
       <c r="Q411" s="126"/>
     </row>
-    <row r="412" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="412" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P412" s="126"/>
       <c r="Q412" s="126"/>
     </row>
-    <row r="413" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="413" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P413" s="126"/>
       <c r="Q413" s="126"/>
     </row>
-    <row r="414" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="414" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P414" s="126"/>
       <c r="Q414" s="126"/>
     </row>
-    <row r="415" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="415" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P415" s="126"/>
       <c r="Q415" s="126"/>
     </row>
-    <row r="416" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="416" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P416" s="126"/>
       <c r="Q416" s="126"/>
     </row>
-    <row r="417" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="417" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P417" s="126"/>
       <c r="Q417" s="126"/>
     </row>
-    <row r="418" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="418" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P418" s="126"/>
       <c r="Q418" s="126"/>
     </row>
-    <row r="419" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="419" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P419" s="126"/>
       <c r="Q419" s="126"/>
     </row>
-    <row r="420" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="420" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P420" s="126"/>
       <c r="Q420" s="126"/>
     </row>
-    <row r="421" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="421" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P421" s="126"/>
       <c r="Q421" s="126"/>
     </row>
-    <row r="422" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="422" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P422" s="126"/>
       <c r="Q422" s="126"/>
     </row>
-    <row r="423" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="423" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P423" s="126"/>
       <c r="Q423" s="126"/>
     </row>
-    <row r="424" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="424" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P424" s="126"/>
       <c r="Q424" s="126"/>
     </row>
-    <row r="425" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="425" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P425" s="126"/>
       <c r="Q425" s="126"/>
     </row>
-    <row r="426" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="426" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P426" s="126"/>
       <c r="Q426" s="126"/>
     </row>
-    <row r="427" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="427" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P427" s="126"/>
       <c r="Q427" s="126"/>
     </row>
-    <row r="428" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="428" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P428" s="126"/>
       <c r="Q428" s="126"/>
     </row>
-    <row r="429" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="429" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P429" s="126"/>
       <c r="Q429" s="126"/>
     </row>
-    <row r="430" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="430" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P430" s="126"/>
       <c r="Q430" s="126"/>
     </row>
-    <row r="431" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="431" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P431" s="126"/>
       <c r="Q431" s="126"/>
     </row>
-    <row r="432" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="432" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P432" s="126"/>
       <c r="Q432" s="126"/>
     </row>
-    <row r="433" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="433" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P433" s="126"/>
       <c r="Q433" s="126"/>
     </row>
-    <row r="434" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="434" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P434" s="126"/>
       <c r="Q434" s="126"/>
     </row>
-    <row r="435" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="435" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P435" s="126"/>
       <c r="Q435" s="126"/>
     </row>
-    <row r="436" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="436" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P436" s="126"/>
       <c r="Q436" s="126"/>
     </row>
-    <row r="437" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="437" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P437" s="126"/>
       <c r="Q437" s="126"/>
     </row>
-    <row r="438" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="438" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P438" s="126"/>
       <c r="Q438" s="126"/>
     </row>
-    <row r="439" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="439" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P439" s="126"/>
       <c r="Q439" s="126"/>
     </row>
-    <row r="440" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="440" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P440" s="126"/>
       <c r="Q440" s="126"/>
     </row>
-    <row r="441" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="441" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P441" s="126"/>
       <c r="Q441" s="126"/>
     </row>
-    <row r="442" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="442" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P442" s="126"/>
       <c r="Q442" s="126"/>
     </row>
-    <row r="443" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="443" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P443" s="126"/>
       <c r="Q443" s="126"/>
     </row>
-    <row r="444" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="444" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P444" s="126"/>
       <c r="Q444" s="126"/>
     </row>
-    <row r="445" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="445" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P445" s="126"/>
       <c r="Q445" s="126"/>
     </row>
-    <row r="446" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="446" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P446" s="126"/>
       <c r="Q446" s="126"/>
     </row>
-    <row r="447" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="447" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P447" s="126"/>
       <c r="Q447" s="126"/>
     </row>
-    <row r="448" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="448" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P448" s="126"/>
       <c r="Q448" s="126"/>
     </row>
-    <row r="449" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="449" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P449" s="126"/>
       <c r="Q449" s="126"/>
     </row>
-    <row r="450" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="450" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P450" s="126"/>
       <c r="Q450" s="126"/>
     </row>
-    <row r="451" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="451" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P451" s="126"/>
       <c r="Q451" s="126"/>
     </row>
-    <row r="452" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="452" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P452" s="126"/>
       <c r="Q452" s="126"/>
     </row>
-    <row r="453" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="453" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P453" s="126"/>
       <c r="Q453" s="126"/>
     </row>
-    <row r="454" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="454" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P454" s="126"/>
       <c r="Q454" s="126"/>
     </row>
-    <row r="455" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="455" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P455" s="126"/>
       <c r="Q455" s="126"/>
     </row>
-    <row r="456" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="456" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P456" s="126"/>
       <c r="Q456" s="126"/>
     </row>
-    <row r="457" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="457" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P457" s="126"/>
       <c r="Q457" s="126"/>
     </row>
-    <row r="458" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="458" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P458" s="126"/>
       <c r="Q458" s="126"/>
     </row>
-    <row r="459" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="459" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P459" s="126"/>
       <c r="Q459" s="126"/>
     </row>
-    <row r="460" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="460" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P460" s="126"/>
       <c r="Q460" s="126"/>
     </row>
-    <row r="461" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="461" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P461" s="126"/>
       <c r="Q461" s="126"/>
     </row>
-    <row r="462" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="462" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P462" s="126"/>
       <c r="Q462" s="126"/>
     </row>
-    <row r="463" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="463" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P463" s="126"/>
       <c r="Q463" s="126"/>
     </row>
-    <row r="464" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="464" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P464" s="126"/>
       <c r="Q464" s="126"/>
     </row>
-    <row r="465" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="465" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P465" s="126"/>
       <c r="Q465" s="126"/>
     </row>
-    <row r="466" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="466" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P466" s="126"/>
       <c r="Q466" s="126"/>
     </row>
-    <row r="467" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="467" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P467" s="126"/>
       <c r="Q467" s="126"/>
     </row>
-    <row r="468" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="468" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P468" s="126"/>
       <c r="Q468" s="126"/>
     </row>
-    <row r="469" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="469" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P469" s="126"/>
       <c r="Q469" s="126"/>
     </row>
-    <row r="470" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="470" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P470" s="126"/>
       <c r="Q470" s="126"/>
     </row>
-    <row r="471" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="471" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P471" s="126"/>
       <c r="Q471" s="126"/>
     </row>
-    <row r="472" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="472" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P472" s="126"/>
       <c r="Q472" s="126"/>
     </row>
-    <row r="473" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="473" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P473" s="126"/>
       <c r="Q473" s="126"/>
     </row>
-    <row r="474" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="474" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P474" s="126"/>
       <c r="Q474" s="126"/>
     </row>
-    <row r="475" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="475" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P475" s="126"/>
       <c r="Q475" s="126"/>
     </row>
-    <row r="476" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="476" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P476" s="126"/>
       <c r="Q476" s="126"/>
     </row>
-    <row r="477" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="477" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P477" s="126"/>
       <c r="Q477" s="126"/>
     </row>
-    <row r="478" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="478" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P478" s="126"/>
       <c r="Q478" s="126"/>
     </row>
-    <row r="479" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="479" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P479" s="126"/>
       <c r="Q479" s="126"/>
     </row>
-    <row r="480" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="480" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P480" s="126"/>
       <c r="Q480" s="126"/>
     </row>
-    <row r="481" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="481" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P481" s="126"/>
       <c r="Q481" s="126"/>
     </row>
-    <row r="482" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="482" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P482" s="126"/>
       <c r="Q482" s="126"/>
     </row>
-    <row r="483" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="483" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P483" s="126"/>
       <c r="Q483" s="126"/>
     </row>
-    <row r="484" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="484" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P484" s="126"/>
       <c r="Q484" s="126"/>
     </row>
-    <row r="485" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="485" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P485" s="126"/>
       <c r="Q485" s="126"/>
     </row>
-    <row r="486" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="486" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P486" s="126"/>
       <c r="Q486" s="126"/>
     </row>
-    <row r="487" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="487" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P487" s="126"/>
       <c r="Q487" s="126"/>
     </row>
-    <row r="488" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="488" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P488" s="126"/>
       <c r="Q488" s="126"/>
     </row>
-    <row r="489" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="489" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P489" s="126"/>
       <c r="Q489" s="126"/>
     </row>
-    <row r="490" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="490" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P490" s="126"/>
       <c r="Q490" s="126"/>
     </row>
-    <row r="491" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="491" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P491" s="126"/>
       <c r="Q491" s="126"/>
     </row>
-    <row r="492" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="492" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P492" s="126"/>
       <c r="Q492" s="126"/>
     </row>
-    <row r="493" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="493" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P493" s="126"/>
       <c r="Q493" s="126"/>
     </row>
-    <row r="494" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="494" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P494" s="126"/>
       <c r="Q494" s="126"/>
     </row>
-    <row r="495" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="495" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P495" s="126"/>
       <c r="Q495" s="126"/>
     </row>
-    <row r="496" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="496" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P496" s="126"/>
       <c r="Q496" s="126"/>
     </row>
-    <row r="497" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="497" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P497" s="126"/>
       <c r="Q497" s="126"/>
     </row>
-    <row r="498" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="498" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P498" s="126"/>
       <c r="Q498" s="126"/>
     </row>
-    <row r="499" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="499" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P499" s="126"/>
       <c r="Q499" s="126"/>
     </row>
-    <row r="500" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="500" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P500" s="126"/>
       <c r="Q500" s="126"/>
     </row>
-    <row r="501" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="501" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P501" s="126"/>
       <c r="Q501" s="126"/>
     </row>
-    <row r="502" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="502" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P502" s="126"/>
       <c r="Q502" s="126"/>
     </row>
-    <row r="503" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="503" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P503" s="126"/>
       <c r="Q503" s="126"/>
     </row>
-    <row r="504" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="504" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P504" s="126"/>
       <c r="Q504" s="126"/>
     </row>
-    <row r="505" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="505" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P505" s="126"/>
       <c r="Q505" s="126"/>
     </row>
-    <row r="506" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="506" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P506" s="126"/>
       <c r="Q506" s="126"/>
     </row>
-    <row r="507" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="507" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P507" s="126"/>
       <c r="Q507" s="126"/>
     </row>
-    <row r="508" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="508" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P508" s="126"/>
       <c r="Q508" s="126"/>
     </row>
-    <row r="509" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="509" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P509" s="126"/>
       <c r="Q509" s="126"/>
     </row>
-    <row r="510" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="510" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P510" s="126"/>
       <c r="Q510" s="126"/>
     </row>
-    <row r="511" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="511" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P511" s="126"/>
       <c r="Q511" s="126"/>
     </row>
-    <row r="512" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="512" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P512" s="126"/>
       <c r="Q512" s="126"/>
     </row>
-    <row r="513" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="513" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P513" s="126"/>
       <c r="Q513" s="126"/>
     </row>
-    <row r="514" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="514" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P514" s="126"/>
       <c r="Q514" s="126"/>
     </row>
-    <row r="515" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="515" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P515" s="126"/>
       <c r="Q515" s="126"/>
     </row>
-    <row r="516" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="516" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P516" s="126"/>
       <c r="Q516" s="126"/>
     </row>
-    <row r="517" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="517" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P517" s="126"/>
       <c r="Q517" s="126"/>
     </row>
-    <row r="518" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="518" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P518" s="126"/>
       <c r="Q518" s="126"/>
     </row>
-    <row r="519" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="519" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P519" s="126"/>
       <c r="Q519" s="126"/>
     </row>
-    <row r="520" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="520" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P520" s="126"/>
       <c r="Q520" s="126"/>
     </row>
-    <row r="521" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="521" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P521" s="126"/>
       <c r="Q521" s="126"/>
     </row>
-    <row r="522" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="522" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P522" s="126"/>
       <c r="Q522" s="126"/>
     </row>
-    <row r="523" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="523" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P523" s="126"/>
       <c r="Q523" s="126"/>
     </row>
-    <row r="524" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="524" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P524" s="126"/>
       <c r="Q524" s="126"/>
     </row>
-    <row r="525" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="525" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P525" s="126"/>
       <c r="Q525" s="126"/>
     </row>
-    <row r="526" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="526" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P526" s="126"/>
       <c r="Q526" s="126"/>
     </row>
-    <row r="527" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="527" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P527" s="126"/>
       <c r="Q527" s="126"/>
     </row>
-    <row r="528" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="528" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P528" s="126"/>
       <c r="Q528" s="126"/>
     </row>
-    <row r="529" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="529" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P529" s="126"/>
       <c r="Q529" s="126"/>
     </row>
-    <row r="530" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="530" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P530" s="126"/>
       <c r="Q530" s="126"/>
     </row>
-    <row r="531" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="531" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P531" s="126"/>
       <c r="Q531" s="126"/>
     </row>
-    <row r="532" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="532" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P532" s="126"/>
       <c r="Q532" s="126"/>
     </row>
-    <row r="533" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="533" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P533" s="126"/>
       <c r="Q533" s="126"/>
     </row>
-    <row r="534" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="534" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P534" s="126"/>
       <c r="Q534" s="126"/>
     </row>
-    <row r="535" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="535" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P535" s="126"/>
       <c r="Q535" s="126"/>
     </row>
-    <row r="536" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="536" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P536" s="126"/>
       <c r="Q536" s="126"/>
     </row>
-    <row r="537" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="537" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P537" s="126"/>
       <c r="Q537" s="126"/>
     </row>
-    <row r="538" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="538" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P538" s="126"/>
       <c r="Q538" s="126"/>
     </row>
-    <row r="539" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="539" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P539" s="126"/>
       <c r="Q539" s="126"/>
     </row>
-    <row r="540" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="540" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P540" s="126"/>
       <c r="Q540" s="126"/>
     </row>
-    <row r="541" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="541" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P541" s="126"/>
       <c r="Q541" s="126"/>
     </row>
-    <row r="542" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="542" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P542" s="126"/>
       <c r="Q542" s="126"/>
     </row>
-    <row r="543" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="543" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P543" s="126"/>
       <c r="Q543" s="126"/>
     </row>
-    <row r="544" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="544" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P544" s="126"/>
       <c r="Q544" s="126"/>
     </row>
-    <row r="545" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="545" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P545" s="126"/>
       <c r="Q545" s="126"/>
     </row>
-    <row r="546" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="546" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P546" s="126"/>
       <c r="Q546" s="126"/>
     </row>
-    <row r="547" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="547" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P547" s="126"/>
       <c r="Q547" s="126"/>
     </row>
-    <row r="548" spans="16:17" x14ac:dyDescent="0.3">
+    <row r="548" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P548" s="126"/>
       <c r="Q548" s="126"/>
     </row>
@@ -15815,29 +15812,29 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K78" sqref="K78"/>
+      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="2" max="2" width="12" style="7" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="78" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="78" customWidth="1"/>
     <col min="6" max="6" width="9" style="78" customWidth="1"/>
-    <col min="7" max="9" width="13.5546875" style="78" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" style="78" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" style="116" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" style="10" customWidth="1"/>
-    <col min="13" max="14" width="11.5546875" style="10" customWidth="1"/>
+    <col min="7" max="9" width="13.5703125" style="78" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="78" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="116" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="10" customWidth="1"/>
+    <col min="13" max="14" width="11.5703125" style="10" customWidth="1"/>
     <col min="15" max="24" width="11" style="147" customWidth="1"/>
     <col min="25" max="25" width="11" style="146" customWidth="1"/>
-    <col min="26" max="26" width="12.44140625" style="147" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" style="147" customWidth="1"/>
     <col min="27" max="28" width="11" style="147" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
@@ -15924,7 +15921,7 @@
       </c>
       <c r="AC1" s="335"/>
     </row>
-    <row r="2" spans="1:29" s="29" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" s="29" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13" t="s">
         <v>37</v>
@@ -15976,7 +15973,7 @@
       <c r="AB2" s="161"/>
       <c r="AC2" s="395"/>
     </row>
-    <row r="3" spans="1:29" s="29" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" s="29" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="13" t="s">
         <v>37</v>
@@ -16032,7 +16029,7 @@
       <c r="AB3" s="161"/>
       <c r="AC3" s="395"/>
     </row>
-    <row r="4" spans="1:29" s="285" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="285" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A4" s="79"/>
       <c r="B4" s="186" t="s">
         <v>58</v>
@@ -16094,7 +16091,7 @@
       <c r="AB4" s="167"/>
       <c r="AC4" s="395"/>
     </row>
-    <row r="5" spans="1:29" s="45" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" s="45" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A5" s="79"/>
       <c r="B5" s="8" t="s">
         <v>228</v>
@@ -16159,7 +16156,7 @@
       <c r="AB5" s="167"/>
       <c r="AC5" s="396"/>
     </row>
-    <row r="6" spans="1:29" s="29" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" s="29" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
       <c r="B6" s="79" t="s">
         <v>37</v>
@@ -16219,7 +16216,7 @@
       <c r="AB6" s="167"/>
       <c r="AC6" s="395"/>
     </row>
-    <row r="7" spans="1:29" s="29" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" s="29" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="79"/>
       <c r="B7" s="79" t="s">
         <v>37</v>
@@ -16285,7 +16282,7 @@
       <c r="AB7" s="167"/>
       <c r="AC7" s="395"/>
     </row>
-    <row r="8" spans="1:29" s="306" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" s="306" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="302"/>
       <c r="B8" s="301" t="s">
         <v>66</v>
@@ -16352,7 +16349,7 @@
       <c r="AB8" s="309"/>
       <c r="AC8" s="398"/>
     </row>
-    <row r="9" spans="1:29" s="306" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" s="306" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="302"/>
       <c r="B9" s="301" t="s">
         <v>66</v>
@@ -16410,7 +16407,7 @@
       <c r="AB9" s="309"/>
       <c r="AC9" s="398"/>
     </row>
-    <row r="10" spans="1:29" s="105" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" s="105" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="178"/>
       <c r="B10" s="182" t="s">
         <v>228</v>
@@ -16472,7 +16469,7 @@
       <c r="AB10" s="128"/>
       <c r="AC10" s="335"/>
     </row>
-    <row r="11" spans="1:29" s="306" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" s="306" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="302"/>
       <c r="B11" s="302" t="s">
         <v>66</v>
@@ -16532,7 +16529,7 @@
       <c r="AB11" s="305"/>
       <c r="AC11" s="398"/>
     </row>
-    <row r="12" spans="1:29" s="109" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" s="109" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="106"/>
       <c r="B12" s="41" t="s">
         <v>37</v>
@@ -16591,7 +16588,7 @@
       <c r="AA12" s="179"/>
       <c r="AB12" s="108"/>
     </row>
-    <row r="13" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="181"/>
       <c r="B13" s="177" t="s">
         <v>37</v>
@@ -16661,7 +16658,7 @@
       <c r="AB13" s="128"/>
       <c r="AC13" s="335"/>
     </row>
-    <row r="14" spans="1:29" s="306" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" s="306" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A14" s="302"/>
       <c r="B14" s="301" t="s">
         <v>66</v>
@@ -16725,7 +16722,7 @@
       <c r="AB14" s="309"/>
       <c r="AC14" s="398"/>
     </row>
-    <row r="15" spans="1:29" s="71" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" s="71" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="181"/>
       <c r="B15" s="182" t="s">
         <v>37</v>
@@ -16792,7 +16789,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="306" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" s="306" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A16" s="302"/>
       <c r="B16" s="301" t="s">
         <v>66</v>
@@ -16856,7 +16853,7 @@
       <c r="AB16" s="309"/>
       <c r="AC16" s="398"/>
     </row>
-    <row r="17" spans="1:29" s="287" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" s="287" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A17" s="178"/>
       <c r="B17" s="178" t="s">
         <v>37</v>
@@ -16916,7 +16913,7 @@
       <c r="AB17" s="128"/>
       <c r="AC17" s="399"/>
     </row>
-    <row r="18" spans="1:29" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A18" s="181"/>
       <c r="B18" s="182" t="s">
         <v>37</v>
@@ -16982,7 +16979,7 @@
       <c r="AB18" s="184"/>
       <c r="AC18" s="335"/>
     </row>
-    <row r="19" spans="1:29" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="181" t="s">
         <v>687</v>
       </c>
@@ -17044,7 +17041,7 @@
       <c r="AB19" s="184"/>
       <c r="AC19" s="335"/>
     </row>
-    <row r="20" spans="1:29" s="126" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" s="126" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="178"/>
       <c r="B20" s="177" t="s">
         <v>37</v>
@@ -17106,7 +17103,7 @@
       <c r="AB20" s="128"/>
       <c r="AC20" s="399"/>
     </row>
-    <row r="21" spans="1:29" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="181"/>
       <c r="B21" s="177" t="s">
         <v>37</v>
@@ -17165,7 +17162,7 @@
       <c r="AB21" s="184"/>
       <c r="AC21" s="335"/>
     </row>
-    <row r="22" spans="1:29" s="210" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" s="210" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="209"/>
       <c r="B22" s="209" t="s">
         <v>66</v>
@@ -17224,7 +17221,7 @@
       <c r="AB22" s="268"/>
       <c r="AC22" s="372"/>
     </row>
-    <row r="23" spans="1:29" s="210" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" s="210" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="209"/>
       <c r="B23" s="209" t="s">
         <v>66</v>
@@ -17282,7 +17279,7 @@
       <c r="AB23" s="268"/>
       <c r="AC23" s="372"/>
     </row>
-    <row r="24" spans="1:29" s="210" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" s="210" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A24" s="209"/>
       <c r="B24" s="209" t="s">
         <v>66</v>
@@ -17341,7 +17338,7 @@
       <c r="AB24" s="268"/>
       <c r="AC24" s="372"/>
     </row>
-    <row r="25" spans="1:29" s="126" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" s="126" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A25" s="178"/>
       <c r="B25" s="181" t="s">
         <v>37</v>
@@ -17400,7 +17397,7 @@
       <c r="AB25" s="128"/>
       <c r="AC25" s="399"/>
     </row>
-    <row r="26" spans="1:29" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A26" s="181"/>
       <c r="B26" s="181" t="s">
         <v>37</v>
@@ -17461,7 +17458,7 @@
       <c r="AB26" s="184"/>
       <c r="AC26" s="335"/>
     </row>
-    <row r="27" spans="1:29" s="210" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" s="210" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="209"/>
       <c r="B27" s="209" t="s">
         <v>66</v>
@@ -17524,7 +17521,7 @@
       <c r="AB27" s="268"/>
       <c r="AC27" s="372"/>
     </row>
-    <row r="28" spans="1:29" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A28" s="181"/>
       <c r="B28" s="181" t="s">
         <v>37</v>
@@ -17581,7 +17578,7 @@
       <c r="AB28" s="184"/>
       <c r="AC28" s="335"/>
     </row>
-    <row r="29" spans="1:29" s="210" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" s="210" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A29" s="209"/>
       <c r="B29" s="209" t="s">
         <v>66</v>
@@ -17635,7 +17632,7 @@
       <c r="AB29" s="268"/>
       <c r="AC29" s="372"/>
     </row>
-    <row r="30" spans="1:29" s="210" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" s="210" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="209"/>
       <c r="B30" s="209" t="s">
         <v>66</v>
@@ -17694,7 +17691,7 @@
       <c r="AB30" s="268"/>
       <c r="AC30" s="372"/>
     </row>
-    <row r="31" spans="1:29" s="210" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" s="210" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A31" s="209"/>
       <c r="B31" s="209" t="s">
         <v>66</v>
@@ -17746,7 +17743,7 @@
       <c r="AB31" s="268"/>
       <c r="AC31" s="372"/>
     </row>
-    <row r="32" spans="1:29" s="210" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" s="210" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="209"/>
       <c r="B32" s="209" t="s">
         <v>66</v>
@@ -17798,7 +17795,7 @@
       <c r="AB32" s="268"/>
       <c r="AC32" s="372"/>
     </row>
-    <row r="33" spans="1:29" s="210" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" s="210" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A33" s="209"/>
       <c r="B33" s="209" t="s">
         <v>66</v>
@@ -17852,7 +17849,7 @@
       <c r="AB33" s="268"/>
       <c r="AC33" s="372"/>
     </row>
-    <row r="34" spans="1:29" s="210" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" s="210" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A34" s="209"/>
       <c r="B34" s="209" t="s">
         <v>66</v>
@@ -17906,7 +17903,7 @@
       <c r="AB34" s="268"/>
       <c r="AC34" s="372"/>
     </row>
-    <row r="35" spans="1:29" s="210" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" s="210" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A35" s="209"/>
       <c r="B35" s="209" t="s">
         <v>66</v>
@@ -17962,7 +17959,7 @@
       <c r="AB35" s="268"/>
       <c r="AC35" s="372"/>
     </row>
-    <row r="36" spans="1:29" s="210" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" s="210" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A36" s="286"/>
       <c r="B36" s="209" t="s">
         <v>66</v>
@@ -18016,7 +18013,7 @@
       <c r="AB36" s="268"/>
       <c r="AC36" s="372"/>
     </row>
-    <row r="37" spans="1:29" s="210" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" s="210" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A37" s="209"/>
       <c r="B37" s="209" t="s">
         <v>66</v>
@@ -18072,7 +18069,7 @@
       <c r="AB37" s="268"/>
       <c r="AC37" s="372"/>
     </row>
-    <row r="38" spans="1:29" s="210" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" s="210" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A38" s="209"/>
       <c r="B38" s="209" t="s">
         <v>66</v>
@@ -18128,7 +18125,7 @@
       <c r="AB38" s="268"/>
       <c r="AC38" s="372"/>
     </row>
-    <row r="39" spans="1:29" s="210" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" s="210" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A39" s="209"/>
       <c r="B39" s="209" t="s">
         <v>66</v>
@@ -18184,7 +18181,7 @@
       <c r="AB39" s="268"/>
       <c r="AC39" s="372"/>
     </row>
-    <row r="40" spans="1:29" s="210" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" s="210" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A40" s="209"/>
       <c r="B40" s="209" t="s">
         <v>66</v>
@@ -18242,7 +18239,7 @@
       <c r="AB40" s="268"/>
       <c r="AC40" s="372"/>
     </row>
-    <row r="41" spans="1:29" s="210" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" s="210" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="209"/>
       <c r="B41" s="209" t="s">
         <v>66</v>
@@ -18296,7 +18293,7 @@
       <c r="AB41" s="268"/>
       <c r="AC41" s="372"/>
     </row>
-    <row r="42" spans="1:29" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="181"/>
       <c r="B42" s="181" t="s">
         <v>37</v>
@@ -18348,7 +18345,7 @@
       <c r="AB42" s="184"/>
       <c r="AC42" s="335"/>
     </row>
-    <row r="43" spans="1:29" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A43" s="181"/>
       <c r="B43" s="181" t="s">
         <v>37</v>
@@ -18404,7 +18401,7 @@
       <c r="AB43" s="184"/>
       <c r="AC43" s="335"/>
     </row>
-    <row r="44" spans="1:29" s="210" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" s="210" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="209"/>
       <c r="B44" s="209" t="s">
         <v>66</v>
@@ -18458,7 +18455,7 @@
       <c r="AB44" s="268"/>
       <c r="AC44" s="372"/>
     </row>
-    <row r="45" spans="1:29" s="210" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" s="210" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="209"/>
       <c r="B45" s="209" t="s">
         <v>58</v>
@@ -18512,7 +18509,7 @@
       <c r="AB45" s="268"/>
       <c r="AC45" s="372"/>
     </row>
-    <row r="46" spans="1:29" s="372" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" s="372" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A46" s="209"/>
       <c r="B46" s="209" t="s">
         <v>37</v>
@@ -18565,7 +18562,7 @@
       <c r="AA46" s="268"/>
       <c r="AB46" s="268"/>
     </row>
-    <row r="47" spans="1:29" s="335" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" s="335" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A47" s="181"/>
       <c r="B47" s="181" t="s">
         <v>37</v>
@@ -18622,7 +18619,7 @@
       <c r="AA47" s="184"/>
       <c r="AB47" s="184"/>
     </row>
-    <row r="48" spans="1:29" s="210" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" s="210" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A48" s="286"/>
       <c r="B48" s="209" t="s">
         <v>66</v>
@@ -18676,7 +18673,7 @@
       <c r="AB48" s="268"/>
       <c r="AC48" s="372"/>
     </row>
-    <row r="49" spans="1:29" s="335" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" s="335" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A49" s="181"/>
       <c r="B49" s="181" t="s">
         <v>37</v>
@@ -18733,7 +18730,7 @@
       <c r="AA49" s="184"/>
       <c r="AB49" s="184"/>
     </row>
-    <row r="50" spans="1:29" s="210" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" s="210" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A50" s="372"/>
       <c r="B50" s="209" t="s">
         <v>66</v>
@@ -18793,7 +18790,7 @@
       <c r="AB50" s="268"/>
       <c r="AC50" s="372"/>
     </row>
-    <row r="51" spans="1:29" s="335" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" s="335" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="181"/>
       <c r="B51" s="181" t="s">
         <v>37</v>
@@ -18851,7 +18848,7 @@
       <c r="AA51" s="184"/>
       <c r="AB51" s="184"/>
     </row>
-    <row r="52" spans="1:29" s="210" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" s="210" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A52" s="286"/>
       <c r="B52" s="209" t="s">
         <v>58</v>
@@ -18905,7 +18902,7 @@
       <c r="AB52" s="268"/>
       <c r="AC52" s="372"/>
     </row>
-    <row r="53" spans="1:29" s="335" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" s="335" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A53" s="181"/>
       <c r="B53" s="339" t="s">
         <v>610</v>
@@ -18958,7 +18955,7 @@
       <c r="AA53" s="184"/>
       <c r="AB53" s="184"/>
     </row>
-    <row r="54" spans="1:29" s="335" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" s="335" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A54" s="181"/>
       <c r="B54" s="34" t="s">
         <v>228</v>
@@ -19015,7 +19012,7 @@
       <c r="AA54" s="184"/>
       <c r="AB54" s="184"/>
     </row>
-    <row r="55" spans="1:29" s="210" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" s="210" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A55" s="286"/>
       <c r="B55" s="209" t="s">
         <v>66</v>
@@ -19069,7 +19066,7 @@
       <c r="AB55" s="268"/>
       <c r="AC55" s="372"/>
     </row>
-    <row r="56" spans="1:29" s="210" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" s="210" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="209"/>
       <c r="B56" s="209" t="s">
         <v>66</v>
@@ -19125,7 +19122,7 @@
       <c r="AB56" s="268"/>
       <c r="AC56" s="372"/>
     </row>
-    <row r="57" spans="1:29" s="210" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" s="210" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="286"/>
       <c r="B57" s="209" t="s">
         <v>66</v>
@@ -19179,7 +19176,7 @@
       <c r="AB57" s="268"/>
       <c r="AC57" s="372"/>
     </row>
-    <row r="58" spans="1:29" s="374" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" s="374" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="239"/>
       <c r="B58" s="209" t="s">
         <v>66</v>
@@ -19233,7 +19230,7 @@
       <c r="AB58" s="350"/>
       <c r="AC58" s="402"/>
     </row>
-    <row r="59" spans="1:29" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A59" s="181"/>
       <c r="B59" s="181" t="s">
         <v>37</v>
@@ -19287,7 +19284,7 @@
       <c r="AB59" s="184"/>
       <c r="AC59" s="335"/>
     </row>
-    <row r="60" spans="1:29" s="210" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" s="210" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="209"/>
       <c r="B60" s="209" t="s">
         <v>66</v>
@@ -19341,7 +19338,7 @@
       <c r="AB60" s="268"/>
       <c r="AC60" s="372"/>
     </row>
-    <row r="61" spans="1:29" s="210" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" s="210" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="209"/>
       <c r="B61" s="209" t="s">
         <v>66</v>
@@ -19395,7 +19392,7 @@
       <c r="AB61" s="268"/>
       <c r="AC61" s="372"/>
     </row>
-    <row r="62" spans="1:29" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="181"/>
       <c r="B62" s="339" t="s">
         <v>610</v>
@@ -19443,7 +19440,7 @@
       <c r="AB62" s="184"/>
       <c r="AC62" s="335"/>
     </row>
-    <row r="63" spans="1:29" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A63" s="181"/>
       <c r="B63" s="181" t="s">
         <v>37</v>
@@ -19499,7 +19496,7 @@
       <c r="AB63" s="181"/>
       <c r="AC63" s="335"/>
     </row>
-    <row r="64" spans="1:29" s="210" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" s="210" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A64" s="209"/>
       <c r="B64" s="209" t="s">
         <v>66</v>
@@ -19553,7 +19550,7 @@
       <c r="AB64" s="209"/>
       <c r="AC64" s="372"/>
     </row>
-    <row r="65" spans="1:49" s="210" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:49" s="210" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A65" s="209"/>
       <c r="B65" s="209" t="s">
         <v>66</v>
@@ -19607,7 +19604,7 @@
       <c r="AB65" s="209"/>
       <c r="AC65" s="372"/>
     </row>
-    <row r="66" spans="1:49" s="210" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:49" s="210" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="209"/>
       <c r="B66" s="209" t="s">
         <v>66</v>
@@ -19661,7 +19658,7 @@
       <c r="AB66" s="209"/>
       <c r="AC66" s="372"/>
     </row>
-    <row r="67" spans="1:49" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:49" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A67" s="181"/>
       <c r="B67" s="177" t="s">
         <v>37</v>
@@ -19717,7 +19714,7 @@
       <c r="AB67" s="181"/>
       <c r="AC67" s="335"/>
     </row>
-    <row r="68" spans="1:49" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:49" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A68" s="181"/>
       <c r="B68" s="177" t="s">
         <v>37</v>
@@ -19773,7 +19770,7 @@
       <c r="AB68" s="184"/>
       <c r="AC68" s="335"/>
     </row>
-    <row r="69" spans="1:49" s="210" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:49" s="210" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="209"/>
       <c r="B69" s="209"/>
       <c r="C69" s="208" t="s">
@@ -19825,7 +19822,7 @@
       <c r="AB69" s="209"/>
       <c r="AC69" s="372"/>
     </row>
-    <row r="70" spans="1:49" s="109" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:49" s="109" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="182"/>
       <c r="B70" s="177" t="s">
         <v>37</v>
@@ -19876,7 +19873,7 @@
       <c r="AA70" s="184"/>
       <c r="AB70" s="190"/>
     </row>
-    <row r="71" spans="1:49" s="210" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:49" s="210" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="209"/>
       <c r="B71" s="209" t="s">
         <v>66</v>
@@ -19952,7 +19949,7 @@
       <c r="AV71" s="325"/>
       <c r="AW71" s="325"/>
     </row>
-    <row r="72" spans="1:49" s="210" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:49" s="210" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="209"/>
       <c r="B72" s="209" t="s">
         <v>66</v>
@@ -20028,7 +20025,7 @@
       <c r="AV72" s="325"/>
       <c r="AW72" s="325"/>
     </row>
-    <row r="73" spans="1:49" s="393" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:49" s="393" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A73" s="181"/>
       <c r="B73" s="181" t="s">
         <v>610</v>
@@ -20076,7 +20073,7 @@
       <c r="AB73" s="184"/>
       <c r="AC73" s="335"/>
     </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A74" s="72"/>
       <c r="B74" s="294"/>
       <c r="C74" s="177" t="s">
@@ -20120,7 +20117,7 @@
       <c r="AA74" s="295"/>
       <c r="AB74" s="295"/>
     </row>
-    <row r="75" spans="1:49" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:49" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="72"/>
       <c r="B75" s="181" t="s">
         <v>610</v>
@@ -20128,9 +20125,7 @@
       <c r="C75" s="177" t="s">
         <v>797</v>
       </c>
-      <c r="D75" s="177" t="s">
-        <v>865</v>
-      </c>
+      <c r="D75" s="177"/>
       <c r="E75" s="294"/>
       <c r="F75" s="294"/>
       <c r="G75" s="294"/>
@@ -20162,7 +20157,7 @@
       <c r="AA75" s="295"/>
       <c r="AB75" s="295"/>
     </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A76" s="72"/>
       <c r="B76" s="294"/>
       <c r="C76" s="72"/>
@@ -20192,7 +20187,7 @@
       <c r="AA76" s="295"/>
       <c r="AB76" s="295"/>
     </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A77" s="72"/>
       <c r="B77" s="294"/>
       <c r="C77" s="72"/>
@@ -20222,7 +20217,7 @@
       <c r="AA77" s="295"/>
       <c r="AB77" s="295"/>
     </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A78" s="72"/>
       <c r="B78" s="294"/>
       <c r="C78" s="72"/>
@@ -20252,7 +20247,7 @@
       <c r="AA78" s="295"/>
       <c r="AB78" s="295"/>
     </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A79" s="72"/>
       <c r="B79" s="294"/>
       <c r="C79" s="72"/>
@@ -20282,7 +20277,7 @@
       <c r="AA79" s="295"/>
       <c r="AB79" s="295"/>
     </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A80" s="72"/>
       <c r="B80" s="294"/>
       <c r="C80" s="72"/>
@@ -20312,7 +20307,7 @@
       <c r="AA80" s="295"/>
       <c r="AB80" s="295"/>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="72"/>
       <c r="B81" s="294"/>
       <c r="C81" s="72"/>
@@ -20342,7 +20337,7 @@
       <c r="AA81" s="295"/>
       <c r="AB81" s="295"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="72"/>
       <c r="B82" s="294"/>
       <c r="C82" s="72"/>
@@ -20372,7 +20367,7 @@
       <c r="AA82" s="295"/>
       <c r="AB82" s="295"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="72"/>
       <c r="B83" s="294"/>
       <c r="C83" s="72"/>
@@ -20402,7 +20397,7 @@
       <c r="AA83" s="295"/>
       <c r="AB83" s="295"/>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="72"/>
       <c r="B84" s="294"/>
       <c r="C84" s="72"/>
@@ -20432,7 +20427,7 @@
       <c r="AA84" s="295"/>
       <c r="AB84" s="295"/>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="72"/>
       <c r="B85" s="294"/>
       <c r="C85" s="72"/>
@@ -20462,7 +20457,7 @@
       <c r="AA85" s="295"/>
       <c r="AB85" s="295"/>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="72"/>
       <c r="B86" s="294"/>
       <c r="C86" s="72"/>
@@ -20492,7 +20487,7 @@
       <c r="AA86" s="295"/>
       <c r="AB86" s="295"/>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="72"/>
       <c r="B87" s="294"/>
       <c r="C87" s="72"/>
@@ -20522,7 +20517,7 @@
       <c r="AA87" s="295"/>
       <c r="AB87" s="295"/>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="72"/>
       <c r="B88" s="294"/>
       <c r="C88" s="72"/>
@@ -20552,7 +20547,7 @@
       <c r="AA88" s="295"/>
       <c r="AB88" s="295"/>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="72"/>
       <c r="B89" s="294"/>
       <c r="C89" s="72"/>
@@ -20582,7 +20577,7 @@
       <c r="AA89" s="295"/>
       <c r="AB89" s="295"/>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="72"/>
       <c r="B90" s="294"/>
       <c r="C90" s="72"/>
@@ -20636,46 +20631,46 @@
       <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" style="24" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="151" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="36" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="151" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="36" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
     <col min="13" max="13" width="16" style="33" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" style="38" customWidth="1"/>
-    <col min="15" max="15" width="15.109375" style="195" customWidth="1"/>
-    <col min="16" max="16" width="15.33203125" style="195" customWidth="1"/>
-    <col min="17" max="17" width="18.5546875" style="195" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" customWidth="1"/>
-    <col min="19" max="19" width="15.5546875" customWidth="1"/>
-    <col min="20" max="20" width="12.88671875" style="11" customWidth="1"/>
-    <col min="21" max="21" width="12.88671875" style="116" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" style="38" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="195" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" style="195" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="195" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" style="11" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="116" customWidth="1"/>
     <col min="22" max="22" width="12" style="11" customWidth="1"/>
-    <col min="23" max="23" width="13.109375" style="11" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" style="11" customWidth="1"/>
     <col min="24" max="24" width="12" style="11" customWidth="1"/>
-    <col min="25" max="25" width="11.88671875" style="11" customWidth="1"/>
-    <col min="26" max="26" width="11.109375" style="11" customWidth="1"/>
-    <col min="27" max="27" width="11.88671875" style="11" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" style="11" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" style="11" customWidth="1"/>
+    <col min="27" max="27" width="11.85546875" style="11" customWidth="1"/>
     <col min="28" max="28" width="12" style="11" customWidth="1"/>
-    <col min="29" max="33" width="11.88671875" style="11" customWidth="1"/>
-    <col min="34" max="34" width="10.5546875" style="11" customWidth="1"/>
-    <col min="35" max="35" width="13.44140625" style="11" customWidth="1"/>
+    <col min="29" max="33" width="11.85546875" style="11" customWidth="1"/>
+    <col min="34" max="34" width="10.5703125" style="11" customWidth="1"/>
+    <col min="35" max="35" width="13.42578125" style="11" customWidth="1"/>
     <col min="36" max="36" width="14" style="11" customWidth="1"/>
     <col min="37" max="37" width="11" customWidth="1"/>
-    <col min="38" max="38" width="14.6640625" customWidth="1"/>
-    <col min="39" max="39" width="13.33203125" style="39" customWidth="1"/>
+    <col min="38" max="38" width="14.7109375" customWidth="1"/>
+    <col min="39" max="39" width="13.28515625" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="6" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A1" s="170" t="s">
         <v>0</v>
       </c>
@@ -20794,7 +20789,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="266" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" s="266" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A2" s="262"/>
       <c r="B2" s="262" t="s">
         <v>66</v>
@@ -20885,7 +20880,7 @@
       </c>
       <c r="AU2" s="265"/>
     </row>
-    <row r="3" spans="1:47" s="266" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" s="266" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="262"/>
       <c r="B3" s="262" t="s">
         <v>66</v>
@@ -20975,7 +20970,7 @@
       </c>
       <c r="AU3" s="265"/>
     </row>
-    <row r="4" spans="1:47" s="266" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" s="266" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="262"/>
       <c r="B4" s="262" t="s">
         <v>66</v>
@@ -21066,7 +21061,7 @@
       </c>
       <c r="AU4" s="265"/>
     </row>
-    <row r="5" spans="1:47" s="266" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" s="266" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="262"/>
       <c r="B5" s="262" t="s">
         <v>66</v>
@@ -21157,7 +21152,7 @@
       </c>
       <c r="AU5" s="265"/>
     </row>
-    <row r="6" spans="1:47" s="266" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" s="266" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="262"/>
       <c r="B6" s="262" t="s">
         <v>66</v>
@@ -21248,7 +21243,7 @@
       </c>
       <c r="AU6" s="265"/>
     </row>
-    <row r="7" spans="1:47" s="266" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" s="266" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="262"/>
       <c r="B7" s="262" t="s">
         <v>66</v>
@@ -21337,7 +21332,7 @@
       </c>
       <c r="AU7" s="265"/>
     </row>
-    <row r="8" spans="1:47" s="275" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" s="275" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="262"/>
       <c r="B8" s="272" t="s">
         <v>66</v>
@@ -21427,7 +21422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:47" s="275" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" s="275" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A9" s="262"/>
       <c r="B9" s="272" t="s">
         <v>66</v>
@@ -21516,7 +21511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:47" s="275" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" s="275" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="262"/>
       <c r="B10" s="272" t="s">
         <v>66</v>
@@ -21600,7 +21595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:47" s="275" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" s="275" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="262"/>
       <c r="B11" s="272" t="s">
         <v>66</v>
@@ -21681,7 +21676,7 @@
       <c r="AL11" s="272"/>
       <c r="AM11" s="272"/>
     </row>
-    <row r="12" spans="1:47" s="275" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" s="275" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="262"/>
       <c r="B12" s="272" t="s">
         <v>66</v>
@@ -21763,7 +21758,7 @@
       <c r="AL12" s="272"/>
       <c r="AM12" s="272"/>
     </row>
-    <row r="13" spans="1:47" s="275" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" s="275" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="262"/>
       <c r="B13" s="272" t="s">
         <v>66</v>
@@ -21856,7 +21851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:47" s="275" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" s="275" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="262"/>
       <c r="B14" s="272" t="s">
         <v>66</v>
@@ -21950,7 +21945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:47" s="275" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" s="275" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A15" s="262"/>
       <c r="B15" s="272" t="s">
         <v>37</v>
@@ -22035,7 +22030,7 @@
       <c r="AL15" s="272"/>
       <c r="AM15" s="272"/>
     </row>
-    <row r="16" spans="1:47" s="275" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" s="275" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="262"/>
       <c r="B16" s="272" t="s">
         <v>66</v>
@@ -22121,7 +22116,7 @@
       <c r="AL16" s="272"/>
       <c r="AM16" s="272"/>
     </row>
-    <row r="17" spans="1:39" s="330" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" s="330" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="208"/>
       <c r="B17" s="209" t="s">
         <v>66</v>
@@ -22207,7 +22202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:39" s="71" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" s="71" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="181"/>
       <c r="B18" s="181" t="s">
         <v>37</v>
@@ -22293,7 +22288,7 @@
       <c r="AL18" s="149"/>
       <c r="AM18" s="149"/>
     </row>
-    <row r="19" spans="1:39" s="71" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" s="71" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="181"/>
       <c r="B19" s="181" t="s">
         <v>37</v>
@@ -22378,7 +22373,7 @@
       <c r="AL19" s="149"/>
       <c r="AM19" s="149"/>
     </row>
-    <row r="20" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="181"/>
       <c r="B20" s="181" t="s">
         <v>37</v>
@@ -22463,7 +22458,7 @@
       <c r="AL20" s="149"/>
       <c r="AM20" s="149"/>
     </row>
-    <row r="21" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="181"/>
       <c r="B21" s="181" t="s">
         <v>37</v>
@@ -22552,7 +22547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="181"/>
       <c r="B22" s="181" t="s">
         <v>37</v>
@@ -22639,7 +22634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="181"/>
       <c r="B23" s="181" t="s">
         <v>37</v>
@@ -22726,7 +22721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:39" s="330" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" s="330" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A24" s="208"/>
       <c r="B24" s="209" t="s">
         <v>66</v>
@@ -22810,7 +22805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="181"/>
       <c r="B25" s="181" t="s">
         <v>37</v>
@@ -22895,7 +22890,7 @@
       <c r="AL25" s="149"/>
       <c r="AM25" s="149"/>
     </row>
-    <row r="26" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="181"/>
       <c r="B26" s="181" t="s">
         <v>37</v>
@@ -22977,7 +22972,7 @@
       <c r="AL26" s="149"/>
       <c r="AM26" s="149"/>
     </row>
-    <row r="27" spans="1:39" ht="66" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" ht="51" x14ac:dyDescent="0.25">
       <c r="A27" s="181"/>
       <c r="B27" s="181" t="s">
         <v>37</v>
@@ -23062,7 +23057,7 @@
       <c r="AL27" s="149"/>
       <c r="AM27" s="149"/>
     </row>
-    <row r="28" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="181"/>
       <c r="B28" s="181" t="s">
         <v>37</v>
@@ -23149,7 +23144,7 @@
       <c r="AL28" s="149"/>
       <c r="AM28" s="149"/>
     </row>
-    <row r="29" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="181"/>
       <c r="B29" s="181" t="s">
         <v>37</v>
@@ -23230,7 +23225,7 @@
       <c r="AL29" s="149"/>
       <c r="AM29" s="149"/>
     </row>
-    <row r="30" spans="1:39" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A30" s="181"/>
       <c r="B30" s="181" t="s">
         <v>37</v>
@@ -23305,7 +23300,7 @@
       <c r="AL30" s="149"/>
       <c r="AM30" s="149"/>
     </row>
-    <row r="31" spans="1:39" ht="66" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A31" s="181"/>
       <c r="B31" s="181" t="s">
         <v>37</v>
@@ -23392,7 +23387,7 @@
       <c r="AL31" s="149"/>
       <c r="AM31" s="149"/>
     </row>
-    <row r="32" spans="1:39" s="330" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" s="330" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A32" s="208"/>
       <c r="B32" s="209" t="s">
         <v>682</v>
@@ -23468,7 +23463,7 @@
       <c r="AL32" s="209"/>
       <c r="AM32" s="209"/>
     </row>
-    <row r="33" spans="1:41" s="95" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" s="95" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A33" s="89"/>
       <c r="B33" s="89" t="s">
         <v>725</v>
@@ -23531,7 +23526,7 @@
       </c>
       <c r="AM33" s="347"/>
     </row>
-    <row r="34" spans="1:41" s="330" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" s="330" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A34" s="208"/>
       <c r="B34" s="209" t="s">
         <v>58</v>
@@ -23611,7 +23606,7 @@
       <c r="AL34" s="209"/>
       <c r="AM34" s="209"/>
     </row>
-    <row r="35" spans="1:41" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" ht="51" x14ac:dyDescent="0.25">
       <c r="A35" s="181"/>
       <c r="B35" s="181" t="s">
         <v>37</v>
@@ -23688,7 +23683,7 @@
       <c r="AL35" s="149"/>
       <c r="AM35" s="149"/>
     </row>
-    <row r="36" spans="1:41" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A36" s="192"/>
       <c r="B36" s="182" t="s">
         <v>37</v>
@@ -23770,7 +23765,7 @@
       <c r="AN36" s="157"/>
       <c r="AO36" s="157"/>
     </row>
-    <row r="37" spans="1:41" s="330" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" s="330" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A37" s="208"/>
       <c r="B37" s="209" t="s">
         <v>66</v>
@@ -23852,7 +23847,7 @@
       <c r="AL37" s="209"/>
       <c r="AM37" s="209"/>
     </row>
-    <row r="38" spans="1:41" s="330" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" s="330" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A38" s="208"/>
       <c r="B38" s="209" t="s">
         <v>37</v>
@@ -23934,7 +23929,7 @@
       <c r="AL38" s="209"/>
       <c r="AM38" s="209"/>
     </row>
-    <row r="39" spans="1:41" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="192"/>
       <c r="B39" s="182" t="s">
         <v>37</v>
@@ -24012,7 +24007,7 @@
       <c r="AN39" s="158"/>
       <c r="AO39" s="159"/>
     </row>
-    <row r="40" spans="1:41" s="330" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" s="330" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A40" s="208"/>
       <c r="B40" s="209" t="s">
         <v>66</v>
@@ -24088,7 +24083,7 @@
       <c r="AL40" s="209"/>
       <c r="AM40" s="209"/>
     </row>
-    <row r="41" spans="1:41" s="330" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" s="330" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A41" s="208"/>
       <c r="B41" s="209" t="s">
         <v>66</v>
@@ -24172,7 +24167,7 @@
       <c r="AL41" s="209"/>
       <c r="AM41" s="209"/>
     </row>
-    <row r="42" spans="1:41" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" ht="51" x14ac:dyDescent="0.25">
       <c r="A42" s="192"/>
       <c r="B42" s="182" t="s">
         <v>37</v>
@@ -24252,7 +24247,7 @@
       <c r="AN42" s="157"/>
       <c r="AO42" s="157"/>
     </row>
-    <row r="43" spans="1:41" s="330" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" s="330" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="208"/>
       <c r="B43" s="209" t="s">
         <v>66</v>
@@ -24336,7 +24331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" ht="51" x14ac:dyDescent="0.25">
       <c r="A44" s="192"/>
       <c r="B44" s="182" t="s">
         <v>37</v>
@@ -24416,7 +24411,7 @@
       <c r="AN44" s="157"/>
       <c r="AO44" s="157"/>
     </row>
-    <row r="45" spans="1:41" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A45" s="192"/>
       <c r="B45" s="182" t="s">
         <v>37</v>
@@ -24500,7 +24495,7 @@
       <c r="AN45" s="157"/>
       <c r="AO45" s="157"/>
     </row>
-    <row r="46" spans="1:41" s="71" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" s="71" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A46" s="192"/>
       <c r="B46" s="182" t="s">
         <v>37</v>
@@ -24578,7 +24573,7 @@
       <c r="AN46" s="192"/>
       <c r="AO46" s="192"/>
     </row>
-    <row r="47" spans="1:41" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A47" s="192"/>
       <c r="B47" s="182" t="s">
         <v>37</v>
@@ -24657,7 +24652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:41" s="71" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" s="71" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="192"/>
       <c r="B48" s="182" t="s">
         <v>37</v>
@@ -24731,7 +24726,7 @@
       <c r="AL48" s="149"/>
       <c r="AM48" s="149"/>
     </row>
-    <row r="49" spans="1:41" s="71" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:41" s="71" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="192"/>
       <c r="B49" s="182" t="s">
         <v>37</v>
@@ -24805,7 +24800,7 @@
       <c r="AL49" s="149"/>
       <c r="AM49" s="149"/>
     </row>
-    <row r="50" spans="1:41" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:41" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A50" s="72"/>
       <c r="B50" s="181" t="s">
         <v>610</v>
@@ -24873,7 +24868,7 @@
       <c r="AN50" s="71"/>
       <c r="AO50" s="71"/>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" s="72"/>
       <c r="B51" s="72"/>
       <c r="C51" s="72"/>
@@ -24914,7 +24909,7 @@
       <c r="AL51" s="72"/>
       <c r="AM51" s="348"/>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52" s="72"/>
       <c r="B52" s="72"/>
       <c r="C52" s="72"/>
@@ -24955,7 +24950,7 @@
       <c r="AL52" s="72"/>
       <c r="AM52" s="348"/>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" s="72"/>
       <c r="B53" s="72"/>
       <c r="C53" s="72"/>
@@ -24996,7 +24991,7 @@
       <c r="AL53" s="72"/>
       <c r="AM53" s="348"/>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" s="72"/>
       <c r="B54" s="72"/>
       <c r="C54" s="72"/>
@@ -25037,7 +25032,7 @@
       <c r="AL54" s="72"/>
       <c r="AM54" s="348"/>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" s="72"/>
       <c r="B55" s="72"/>
       <c r="C55" s="72"/>
@@ -25078,118 +25073,118 @@
       <c r="AL55" s="72"/>
       <c r="AM55" s="348"/>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="J56" s="331"/>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
       <c r="J57" s="332"/>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
       <c r="J58" s="332"/>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
       <c r="J59" s="332"/>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="J60" s="332"/>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
       <c r="J61" s="332"/>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="J62" s="332"/>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="J63" s="332"/>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="J64" s="332"/>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J65" s="332"/>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J66" s="332"/>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J67" s="332"/>
     </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J68" s="332"/>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J69" s="332"/>
     </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J70" s="332"/>
     </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J71" s="332"/>
     </row>
-    <row r="72" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J72" s="332"/>
     </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J73" s="332"/>
     </row>
-    <row r="74" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J74" s="332"/>
     </row>
-    <row r="75" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J75" s="332"/>
     </row>
-    <row r="76" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J76" s="332"/>
     </row>
-    <row r="77" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J77" s="332"/>
     </row>
-    <row r="78" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J78" s="332"/>
     </row>
-    <row r="79" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J79" s="331"/>
     </row>
-    <row r="80" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J80" s="332"/>
     </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J81" s="332"/>
     </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J82" s="332"/>
     </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J83" s="332"/>
     </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J84" s="332"/>
     </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J85" s="332"/>
     </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J86" s="332"/>
     </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J87" s="332"/>
     </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J88" s="332"/>
     </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J89" s="332"/>
     </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J90" s="332"/>
     </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J91" s="332"/>
     </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J92" s="331"/>
     </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J93" s="331"/>
     </row>
   </sheetData>
@@ -25209,25 +25204,25 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="21.44140625" customWidth="1"/>
-    <col min="11" max="11" width="28.6640625" customWidth="1"/>
-    <col min="12" max="12" width="28.6640625" style="71" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" customWidth="1"/>
+    <col min="12" max="12" width="28.7109375" style="71" customWidth="1"/>
     <col min="13" max="13" width="41" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -25268,7 +25263,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="321" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="321" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="208">
         <v>1</v>
       </c>
@@ -25309,7 +25304,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="321" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="321" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="208">
         <v>2</v>
       </c>
@@ -25350,7 +25345,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="321" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="321" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="208">
         <v>3</v>
       </c>
@@ -25391,7 +25386,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="321" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="321" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="208">
         <v>4</v>
       </c>
@@ -25432,7 +25427,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="321" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" s="321" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="208">
         <v>5</v>
       </c>
@@ -25473,7 +25468,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="321" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" s="321" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="208">
         <v>6</v>
       </c>
@@ -25514,7 +25509,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="321" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" s="321" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="208">
         <v>7</v>
       </c>
@@ -25555,7 +25550,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="321" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" s="321" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="208">
         <v>8</v>
       </c>
@@ -25596,7 +25591,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="321" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" s="321" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="208">
         <v>9</v>
       </c>
@@ -25637,7 +25632,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="210" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" s="210" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A11" s="208">
         <v>10</v>
       </c>
@@ -25678,7 +25673,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="321" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" s="321" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A12" s="208">
         <v>11</v>
       </c>
@@ -25719,7 +25714,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="83">
         <v>12</v>
       </c>
@@ -25770,7 +25765,7 @@
       <c r="X13" s="65"/>
       <c r="Y13" s="65"/>
     </row>
-    <row r="14" spans="1:25" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="51" x14ac:dyDescent="0.25">
       <c r="A14" s="83">
         <v>13</v>
       </c>
@@ -25809,7 +25804,7 @@
       </c>
       <c r="M14" s="72"/>
     </row>
-    <row r="15" spans="1:25" s="321" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" s="321" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="208">
         <v>14</v>
       </c>
@@ -25850,7 +25845,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="66" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A16" s="83">
         <v>15</v>
       </c>
@@ -25887,7 +25882,7 @@
       <c r="L16" s="82"/>
       <c r="M16" s="72"/>
     </row>
-    <row r="17" spans="1:53" s="210" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:53" s="210" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A17" s="208">
         <v>16</v>
       </c>
@@ -25928,7 +25923,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="18" spans="1:53" s="323" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" s="323" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="208">
         <v>17</v>
       </c>
@@ -25967,7 +25962,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:53" s="210" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:53" s="210" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="208">
         <v>18</v>
       </c>
@@ -26006,7 +26001,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:53" s="321" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" s="321" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="208">
         <v>19</v>
       </c>
@@ -26045,7 +26040,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="21" spans="1:53" s="99" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" s="99" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="83">
         <v>20</v>
       </c>
@@ -26084,7 +26079,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:53" s="99" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" s="99" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A22" s="83">
         <v>21</v>
       </c>
@@ -26123,7 +26118,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:53" s="95" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:53" s="95" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A23" s="83">
         <v>22</v>
       </c>
@@ -26160,7 +26155,7 @@
       <c r="L23" s="93"/>
       <c r="M23" s="89"/>
     </row>
-    <row r="24" spans="1:53" s="95" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:53" s="95" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="83">
         <v>23</v>
       </c>
@@ -26199,7 +26194,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="25" spans="1:53" s="210" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:53" s="210" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="208">
         <v>24</v>
       </c>
@@ -26249,7 +26244,7 @@
       <c r="U25" s="208"/>
       <c r="V25" s="327"/>
     </row>
-    <row r="26" spans="1:53" s="210" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:53" s="210" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="208">
         <v>25</v>
       </c>
@@ -26298,7 +26293,7 @@
       <c r="T26" s="326"/>
       <c r="U26" s="208"/>
     </row>
-    <row r="27" spans="1:53" s="48" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:53" s="48" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A27" s="208">
         <v>26</v>
       </c>
@@ -26383,7 +26378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:53" s="210" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:53" s="210" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A28" s="208">
         <v>27</v>
       </c>
@@ -26428,7 +26423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:53" s="321" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" s="321" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="208">
         <v>28</v>
       </c>
@@ -26483,19 +26478,19 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="117" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="117" customWidth="1"/>
     <col min="2" max="2" width="33" style="117" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="117" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" style="117" customWidth="1"/>
-    <col min="5" max="6" width="35.88671875" style="117" customWidth="1"/>
-    <col min="7" max="7" width="61.88671875" style="117" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="117" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="117" customWidth="1"/>
+    <col min="5" max="6" width="35.85546875" style="117" customWidth="1"/>
+    <col min="7" max="7" width="61.85546875" style="117" customWidth="1"/>
     <col min="8" max="8" width="18" style="117" customWidth="1"/>
-    <col min="9" max="9" width="46.33203125" style="117" customWidth="1"/>
+    <col min="9" max="9" width="46.28515625" style="117" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>371</v>
       </c>
@@ -26520,7 +26515,7 @@
       <c r="H1" s="81"/>
       <c r="I1" s="81"/>
     </row>
-    <row r="2" spans="1:9" s="120" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="120" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
         <v>357</v>
       </c>
@@ -26545,7 +26540,7 @@
       <c r="H2" s="119"/>
       <c r="I2" s="119"/>
     </row>
-    <row r="3" spans="1:9" s="120" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="120" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>357</v>
       </c>
@@ -26570,7 +26565,7 @@
       <c r="H3" s="119"/>
       <c r="I3" s="119"/>
     </row>
-    <row r="4" spans="1:9" ht="330" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="318.75" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
         <v>383</v>
       </c>
@@ -26595,7 +26590,7 @@
       <c r="H4" s="118"/>
       <c r="I4" s="118"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="118"/>
       <c r="B5" s="118"/>
       <c r="C5" s="118"/>
@@ -26606,7 +26601,7 @@
       <c r="H5" s="118"/>
       <c r="I5" s="118"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="118"/>
       <c r="B6" s="118"/>
       <c r="C6" s="118"/>
@@ -26617,7 +26612,7 @@
       <c r="H6" s="118"/>
       <c r="I6" s="118"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="118"/>
       <c r="B7" s="118"/>
       <c r="C7" s="118"/>
@@ -26628,7 +26623,7 @@
       <c r="H7" s="118"/>
       <c r="I7" s="118"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="118"/>
       <c r="B8" s="118"/>
       <c r="C8" s="118"/>
@@ -26639,7 +26634,7 @@
       <c r="H8" s="118"/>
       <c r="I8" s="118"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="118"/>
       <c r="B9" s="118"/>
       <c r="C9" s="118"/>
@@ -26650,7 +26645,7 @@
       <c r="H9" s="118"/>
       <c r="I9" s="118"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="118"/>
       <c r="B10" s="118"/>
       <c r="C10" s="118"/>
@@ -26661,7 +26656,7 @@
       <c r="H10" s="118"/>
       <c r="I10" s="118"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="118"/>
       <c r="B11" s="118"/>
       <c r="C11" s="118"/>
@@ -26672,7 +26667,7 @@
       <c r="H11" s="118"/>
       <c r="I11" s="118"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="118"/>
       <c r="B12" s="118"/>
       <c r="C12" s="118"/>
@@ -26683,7 +26678,7 @@
       <c r="H12" s="118"/>
       <c r="I12" s="118"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="118"/>
       <c r="B13" s="118"/>
       <c r="C13" s="118"/>
@@ -26694,7 +26689,7 @@
       <c r="H13" s="118"/>
       <c r="I13" s="118"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="118"/>
       <c r="B14" s="118"/>
       <c r="C14" s="118"/>
@@ -26705,7 +26700,7 @@
       <c r="H14" s="118"/>
       <c r="I14" s="118"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="118"/>
       <c r="B15" s="118"/>
       <c r="C15" s="118"/>
@@ -26729,9 +26724,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B1" s="51" t="s">
         <v>371</v>
       </c>
@@ -26754,7 +26749,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="71" customFormat="1" ht="180" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="71" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="153">
         <v>1</v>
       </c>
@@ -26776,7 +26771,7 @@
       <c r="G2" s="153"/>
       <c r="H2" s="153"/>
     </row>
-    <row r="3" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="153"/>
       <c r="B3" s="153"/>
       <c r="C3" s="153"/>
@@ -26786,7 +26781,7 @@
       <c r="G3" s="153"/>
       <c r="H3" s="153"/>
     </row>
-    <row r="4" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="153"/>
       <c r="B4" s="153"/>
       <c r="C4" s="153"/>
@@ -26796,7 +26791,7 @@
       <c r="G4" s="153"/>
       <c r="H4" s="153"/>
     </row>
-    <row r="5" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="153"/>
       <c r="B5" s="153"/>
       <c r="C5" s="153"/>
@@ -26806,7 +26801,7 @@
       <c r="G5" s="153"/>
       <c r="H5" s="153"/>
     </row>
-    <row r="6" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="153"/>
       <c r="B6" s="153"/>
       <c r="C6" s="153"/>
@@ -26816,7 +26811,7 @@
       <c r="G6" s="153"/>
       <c r="H6" s="153"/>
     </row>
-    <row r="7" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="153"/>
       <c r="B7" s="153"/>
       <c r="C7" s="153"/>
@@ -26826,7 +26821,7 @@
       <c r="G7" s="153"/>
       <c r="H7" s="153"/>
     </row>
-    <row r="8" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="153"/>
       <c r="B8" s="153"/>
       <c r="C8" s="153"/>
@@ -26836,7 +26831,7 @@
       <c r="G8" s="153"/>
       <c r="H8" s="153"/>
     </row>
-    <row r="9" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="153"/>
       <c r="B9" s="153"/>
       <c r="C9" s="153"/>
@@ -26846,7 +26841,7 @@
       <c r="G9" s="153"/>
       <c r="H9" s="153"/>
     </row>
-    <row r="10" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="153"/>
       <c r="B10" s="153"/>
       <c r="C10" s="153"/>
@@ -26856,7 +26851,7 @@
       <c r="G10" s="153"/>
       <c r="H10" s="153"/>
     </row>
-    <row r="11" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="153"/>
       <c r="B11" s="153"/>
       <c r="C11" s="153"/>
